--- a/SupplementaryTables/SupplementaryTable6.xlsx
+++ b/SupplementaryTables/SupplementaryTable6.xlsx
@@ -159,12 +159,12 @@
     <t>DLX1</t>
   </si>
   <si>
+    <t>FAM167A</t>
+  </si>
+  <si>
     <t>PCDH8</t>
   </si>
   <si>
-    <t>FAM167A</t>
-  </si>
-  <si>
     <t>SEMG2</t>
   </si>
   <si>
@@ -243,12 +243,12 @@
     <t>MGAT4C</t>
   </si>
   <si>
+    <t>KCNG3</t>
+  </si>
+  <si>
     <t>NPY5R</t>
   </si>
   <si>
-    <t>KCNG3</t>
-  </si>
-  <si>
     <t>SLIT1</t>
   </si>
   <si>
@@ -261,18 +261,18 @@
     <t>CNR1</t>
   </si>
   <si>
+    <t>AQP4</t>
+  </si>
+  <si>
     <t>HYDIN</t>
   </si>
   <si>
-    <t>AQP4</t>
+    <t>LRP2BP</t>
   </si>
   <si>
     <t>ZCCHC12</t>
   </si>
   <si>
-    <t>LRP2BP</t>
-  </si>
-  <si>
     <t>SPRR2G</t>
   </si>
   <si>
@@ -297,12 +297,12 @@
     <t>RTP1</t>
   </si>
   <si>
+    <t>PLCXD3</t>
+  </si>
+  <si>
     <t>BHLHB9</t>
   </si>
   <si>
-    <t>PLCXD3</t>
-  </si>
-  <si>
     <t>OXT</t>
   </si>
   <si>
@@ -312,12 +312,12 @@
     <t>SYT4</t>
   </si>
   <si>
-    <t>LY6H</t>
-  </si>
-  <si>
     <t>DISP2</t>
   </si>
   <si>
+    <t>ZNF99</t>
+  </si>
+  <si>
     <t>TEX26</t>
   </si>
   <si>
@@ -459,12 +459,12 @@
     <t>TMEM38A</t>
   </si>
   <si>
+    <t>KCNC1</t>
+  </si>
+  <si>
     <t>DACT3</t>
   </si>
   <si>
-    <t>KCNC1</t>
-  </si>
-  <si>
     <t>YPEL4</t>
   </si>
   <si>
@@ -480,12 +480,12 @@
     <t>LRTM2</t>
   </si>
   <si>
+    <t>CACNG2</t>
+  </si>
+  <si>
     <t>TRPC3</t>
   </si>
   <si>
-    <t>CACNG2</t>
-  </si>
-  <si>
     <t>GNG13</t>
   </si>
   <si>
@@ -528,15 +528,15 @@
     <t>MYO5A</t>
   </si>
   <si>
+    <t>ATP1A3</t>
+  </si>
+  <si>
     <t>SOX10</t>
   </si>
   <si>
     <t>SEC14L5</t>
   </si>
   <si>
-    <t>ATP1A3</t>
-  </si>
-  <si>
     <t>ANO4</t>
   </si>
   <si>
@@ -549,12 +549,12 @@
     <t>KRT31</t>
   </si>
   <si>
+    <t>RNF208</t>
+  </si>
+  <si>
     <t>CNDP1</t>
   </si>
   <si>
-    <t>RNF208</t>
-  </si>
-  <si>
     <t>PLLP</t>
   </si>
   <si>
@@ -579,12 +579,12 @@
     <t>DMRT2</t>
   </si>
   <si>
+    <t>OPCML</t>
+  </si>
+  <si>
     <t>CACNG7</t>
   </si>
   <si>
-    <t>OPCML</t>
-  </si>
-  <si>
     <t>RNF157</t>
   </si>
   <si>
@@ -606,9 +606,6 @@
     <t>AATK</t>
   </si>
   <si>
-    <t>SPTSSB</t>
-  </si>
-  <si>
     <t>NIPA1</t>
   </si>
   <si>
@@ -627,6 +624,9 @@
     <t>HS6ST3</t>
   </si>
   <si>
+    <t>GABRB2</t>
+  </si>
+  <si>
     <t>GABRA5</t>
   </si>
   <si>
@@ -636,12 +636,12 @@
     <t>LRRTM1</t>
   </si>
   <si>
+    <t>IPCEF1</t>
+  </si>
+  <si>
     <t>KIAA0319</t>
   </si>
   <si>
-    <t>IPCEF1</t>
-  </si>
-  <si>
     <t>NTNG1</t>
   </si>
   <si>
@@ -696,12 +696,12 @@
     <t>ABHD12B</t>
   </si>
   <si>
+    <t>KCNA4</t>
+  </si>
+  <si>
     <t>FAM182B</t>
   </si>
   <si>
-    <t>KCNA4</t>
-  </si>
-  <si>
     <t>CIT</t>
   </si>
   <si>
@@ -717,12 +717,12 @@
     <t>KIAA1644</t>
   </si>
   <si>
+    <t>ADRA1B</t>
+  </si>
+  <si>
     <t>ANKS1B</t>
   </si>
   <si>
-    <t>ADRA1B</t>
-  </si>
-  <si>
     <t>RTN4R</t>
   </si>
   <si>
@@ -759,12 +759,12 @@
     <t>UBL4B</t>
   </si>
   <si>
+    <t>DDAH1</t>
+  </si>
+  <si>
     <t>ZNF804B</t>
   </si>
   <si>
-    <t>DDAH1</t>
-  </si>
-  <si>
     <t>ANKRD45</t>
   </si>
   <si>
@@ -792,6 +792,9 @@
     <t>VWC2</t>
   </si>
   <si>
+    <t>C2orf83</t>
+  </si>
+  <si>
     <t>NOG</t>
   </si>
   <si>
@@ -810,15 +813,15 @@
     <t>CAMK2B</t>
   </si>
   <si>
-    <t>KCNJ3</t>
-  </si>
-  <si>
     <t>RAPGEF4</t>
   </si>
   <si>
     <t>RPH3A</t>
   </si>
   <si>
+    <t>FAM19A4</t>
+  </si>
+  <si>
     <t>LRP8</t>
   </si>
   <si>
@@ -843,12 +846,12 @@
     <t>WBSCR17</t>
   </si>
   <si>
+    <t>CNIH2</t>
+  </si>
+  <si>
     <t>ZIC4</t>
   </si>
   <si>
-    <t>CNIH2</t>
-  </si>
-  <si>
     <t>PTHLH</t>
   </si>
   <si>
@@ -858,18 +861,21 @@
     <t>CA7</t>
   </si>
   <si>
+    <t>CNTN5</t>
+  </si>
+  <si>
     <t>PCDHB10</t>
   </si>
   <si>
-    <t>CNTN5</t>
-  </si>
-  <si>
     <t>STX1A</t>
   </si>
   <si>
     <t>GABRA4</t>
   </si>
   <si>
+    <t>CPNE7</t>
+  </si>
+  <si>
     <t>CALB1</t>
   </si>
   <si>
@@ -879,24 +885,24 @@
     <t>BCHE</t>
   </si>
   <si>
+    <t>AK5</t>
+  </si>
+  <si>
     <t>GRM6</t>
   </si>
   <si>
-    <t>AK5</t>
-  </si>
-  <si>
     <t>SLC1A6</t>
   </si>
   <si>
     <t>SUSD4</t>
   </si>
   <si>
+    <t>PCDHB6</t>
+  </si>
+  <si>
     <t>KCNB2</t>
   </si>
   <si>
-    <t>PCDHB6</t>
-  </si>
-  <si>
     <t>XKR4</t>
   </si>
   <si>
@@ -906,12 +912,12 @@
     <t>KCTD16</t>
   </si>
   <si>
+    <t>LRRN1</t>
+  </si>
+  <si>
     <t>LRRN2</t>
   </si>
   <si>
-    <t>LRRN1</t>
-  </si>
-  <si>
     <t>MAP3K9</t>
   </si>
   <si>
@@ -921,12 +927,6 @@
     <t>CACNB2</t>
   </si>
   <si>
-    <t>GABRB3</t>
-  </si>
-  <si>
-    <t>SLC4A10</t>
-  </si>
-  <si>
     <t>PC2</t>
   </si>
   <si>
@@ -1014,12 +1014,12 @@
     <t>PLEKHB1</t>
   </si>
   <si>
+    <t>SLC30A10</t>
+  </si>
+  <si>
     <t>DPYSL2</t>
   </si>
   <si>
-    <t>SLC30A10</t>
-  </si>
-  <si>
     <t>GPD1</t>
   </si>
   <si>
@@ -1095,12 +1095,12 @@
     <t>TAS2R43</t>
   </si>
   <si>
+    <t>SLC4A9</t>
+  </si>
+  <si>
     <t>RGS4</t>
   </si>
   <si>
-    <t>SLC4A9</t>
-  </si>
-  <si>
     <t>GOLGA7B</t>
   </si>
   <si>
@@ -1131,24 +1131,24 @@
     <t>KLRC2</t>
   </si>
   <si>
+    <t>NEBL</t>
+  </si>
+  <si>
     <t>GPM6B</t>
   </si>
   <si>
-    <t>NEBL</t>
-  </si>
-  <si>
     <t>ANKRD34B</t>
   </si>
   <si>
     <t>NKAIN1</t>
   </si>
   <si>
+    <t>SMOC1</t>
+  </si>
+  <si>
     <t>PDIA2</t>
   </si>
   <si>
-    <t>SMOC1</t>
-  </si>
-  <si>
     <t>CLDND1</t>
   </si>
   <si>
@@ -1191,33 +1191,33 @@
     <t>HEPACAM</t>
   </si>
   <si>
+    <t>NPB</t>
+  </si>
+  <si>
     <t>JAKMIP3</t>
   </si>
   <si>
-    <t>NPB</t>
-  </si>
-  <si>
     <t>HEY1</t>
   </si>
   <si>
     <t>KIF6</t>
   </si>
   <si>
+    <t>GRID2</t>
+  </si>
+  <si>
     <t>RUNDC3B</t>
   </si>
   <si>
-    <t>GRID2</t>
-  </si>
-  <si>
     <t>SCD5</t>
   </si>
   <si>
+    <t>MAST3</t>
+  </si>
+  <si>
     <t>GFOD1</t>
   </si>
   <si>
-    <t>MAST3</t>
-  </si>
-  <si>
     <t>CRYAB</t>
   </si>
   <si>
@@ -1227,7 +1227,7 @@
     <t>TMEFF1</t>
   </si>
   <si>
-    <t>FGFBP3</t>
+    <t>EDIL3</t>
   </si>
   <si>
     <t>FREM3</t>
@@ -1287,6 +1287,9 @@
     <t>KIAA1549</t>
   </si>
   <si>
+    <t>PRODH2</t>
+  </si>
+  <si>
     <t>OR10A4</t>
   </si>
   <si>
@@ -1335,15 +1338,15 @@
     <t>MAGEA6</t>
   </si>
   <si>
+    <t>ASB18</t>
+  </si>
+  <si>
     <t>ATP6V0E2</t>
   </si>
   <si>
     <t>DKK3</t>
   </si>
   <si>
-    <t>ASB18</t>
-  </si>
-  <si>
     <t>C17orf74</t>
   </si>
   <si>
@@ -1371,12 +1374,12 @@
     <t>SPACA5</t>
   </si>
   <si>
+    <t>RHO</t>
+  </si>
+  <si>
     <t>KRT77</t>
   </si>
   <si>
-    <t>RHO</t>
-  </si>
-  <si>
     <t>C3orf14</t>
   </si>
   <si>
@@ -1389,6 +1392,9 @@
     <t>OR10H5</t>
   </si>
   <si>
+    <t>LPA</t>
+  </si>
+  <si>
     <t>NKX2-8</t>
   </si>
   <si>
@@ -1401,42 +1407,39 @@
     <t>CYP4A11</t>
   </si>
   <si>
-    <t>TUBB3</t>
-  </si>
-  <si>
     <t>GCM2</t>
   </si>
   <si>
+    <t>LHFPL5</t>
+  </si>
+  <si>
     <t>TNP1</t>
   </si>
   <si>
-    <t>LHFPL5</t>
-  </si>
-  <si>
     <t>CSAG1</t>
   </si>
   <si>
     <t>ABLIM2</t>
   </si>
   <si>
+    <t>FAM187B</t>
+  </si>
+  <si>
+    <t>OPN4</t>
+  </si>
+  <si>
     <t>FAM131A</t>
   </si>
   <si>
-    <t>OPN4</t>
-  </si>
-  <si>
-    <t>FAM187B</t>
-  </si>
-  <si>
     <t>CLASP2</t>
   </si>
   <si>
+    <t>MAP6D1</t>
+  </si>
+  <si>
     <t>RAB33A</t>
   </si>
   <si>
-    <t>MAP6D1</t>
-  </si>
-  <si>
     <t>ANP32D</t>
   </si>
   <si>
@@ -1464,12 +1467,12 @@
     <t>CHRNA4</t>
   </si>
   <si>
+    <t>CABP5</t>
+  </si>
+  <si>
     <t>CAP2</t>
   </si>
   <si>
-    <t>CABP5</t>
-  </si>
-  <si>
     <t>SPRR2E</t>
   </si>
   <si>
@@ -1479,15 +1482,18 @@
     <t>KIF5C</t>
   </si>
   <si>
+    <t>CCDC105</t>
+  </si>
+  <si>
     <t>ZNF534</t>
   </si>
   <si>
-    <t>CCDC105</t>
-  </si>
-  <si>
     <t>HRASLS</t>
   </si>
   <si>
+    <t>ATP1B4</t>
+  </si>
+  <si>
     <t>SLC22A9</t>
   </si>
   <si>
@@ -1497,10 +1503,13 @@
     <t>KLHL4</t>
   </si>
   <si>
+    <t>LYNX1</t>
+  </si>
+  <si>
     <t>VSTM5</t>
   </si>
   <si>
-    <t>PRPH2</t>
+    <t>NRSN1</t>
   </si>
   <si>
     <t>FAM131C</t>
@@ -1518,15 +1527,6 @@
     <t>SYNGR3</t>
   </si>
   <si>
-    <t>CHN1</t>
-  </si>
-  <si>
-    <t>GRM3</t>
-  </si>
-  <si>
-    <t>SORCS1</t>
-  </si>
-  <si>
     <t>PC3</t>
   </si>
   <si>
@@ -1536,6 +1536,9 @@
     <t>CA10</t>
   </si>
   <si>
+    <t>TNIK</t>
+  </si>
+  <si>
     <t>SUSD5</t>
   </si>
   <si>
@@ -1569,10 +1572,13 @@
     <t>SCARA3</t>
   </si>
   <si>
+    <t>CSPG5</t>
+  </si>
+  <si>
     <t>NTSR1</t>
   </si>
   <si>
-    <t>CSPG5</t>
+    <t>OPHN1</t>
   </si>
   <si>
     <t>TRPC5</t>
@@ -1605,6 +1611,9 @@
     <t>TAS2R3</t>
   </si>
   <si>
+    <t>IQCJ</t>
+  </si>
+  <si>
     <t>HTR1A</t>
   </si>
   <si>
@@ -1635,6 +1644,9 @@
     <t>RFPL3</t>
   </si>
   <si>
+    <t>RAB26</t>
+  </si>
+  <si>
     <t>NLGN1</t>
   </si>
   <si>
@@ -1689,6 +1701,9 @@
     <t>NDST3</t>
   </si>
   <si>
+    <t>PCDH19</t>
+  </si>
+  <si>
     <t>PAX7</t>
   </si>
   <si>
@@ -1740,13 +1755,16 @@
     <t>ST6GAL2</t>
   </si>
   <si>
+    <t>NOL4</t>
+  </si>
+  <si>
     <t>SVOP</t>
   </si>
   <si>
     <t>ACTL7A</t>
   </si>
   <si>
-    <t>NOL4</t>
+    <t>CSMD1</t>
   </si>
   <si>
     <t>L1CAM</t>
@@ -1761,9 +1779,6 @@
     <t>GPM6A</t>
   </si>
   <si>
-    <t>NGEF</t>
-  </si>
-  <si>
     <t>SYT16</t>
   </si>
   <si>
@@ -1776,6 +1791,9 @@
     <t>SLC26A8</t>
   </si>
   <si>
+    <t>ICAM5</t>
+  </si>
+  <si>
     <t>SCN2A</t>
   </si>
   <si>
@@ -1791,6 +1809,9 @@
     <t>GALNTL5</t>
   </si>
   <si>
+    <t>FBXW12</t>
+  </si>
+  <si>
     <t>HAP1</t>
   </si>
   <si>
@@ -1807,27 +1828,6 @@
   </si>
   <si>
     <t>TBC1D26</t>
-  </si>
-  <si>
-    <t>FAM169A</t>
-  </si>
-  <si>
-    <t>OR10H1</t>
-  </si>
-  <si>
-    <t>GRIK4</t>
-  </si>
-  <si>
-    <t>C10orf62</t>
-  </si>
-  <si>
-    <t>PCDHA13</t>
-  </si>
-  <si>
-    <t>CCDC85A</t>
-  </si>
-  <si>
-    <t>CELSR2</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.038423174586401702</v>
+        <v>-0.038441891998719599</v>
       </c>
     </row>
     <row r="3">
@@ -1923,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.038163730070059798</v>
+        <v>-0.038172969084874102</v>
       </c>
     </row>
     <row r="4">
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.037493863218105099</v>
+        <v>-0.037512565081358203</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.036706087941536999</v>
+        <v>-0.036712744338695598</v>
       </c>
     </row>
     <row r="6">
@@ -1947,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.0363007541381642</v>
+        <v>-0.036311962584397901</v>
       </c>
     </row>
     <row r="7">
@@ -1955,7 +1955,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.035305225483335201</v>
+        <v>-0.035318710254811897</v>
       </c>
     </row>
     <row r="8">
@@ -1963,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.034982978747477002</v>
+        <v>-0.034997816737416698</v>
       </c>
     </row>
     <row r="9">
@@ -1971,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.0348064808663835</v>
+        <v>-0.034827556454283197</v>
       </c>
     </row>
     <row r="10">
@@ -1979,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.034804308087135603</v>
+        <v>-0.034819918967853601</v>
       </c>
     </row>
     <row r="11">
@@ -1987,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.034544958121391099</v>
+        <v>-0.034558474623988297</v>
       </c>
     </row>
     <row r="12">
@@ -1995,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.034139434683768399</v>
+        <v>-0.034143273059781397</v>
       </c>
     </row>
     <row r="13">
@@ -2003,7 +2003,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.034048905113821401</v>
+        <v>-0.0340498496651091</v>
       </c>
     </row>
     <row r="14">
@@ -2011,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.033820363674834299</v>
+        <v>-0.033830503981580502</v>
       </c>
     </row>
     <row r="15">
@@ -2019,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.033764501359290502</v>
+        <v>-0.033781415046653801</v>
       </c>
     </row>
     <row r="16">
@@ -2027,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.033048902286502001</v>
+        <v>-0.033060878918208497</v>
       </c>
     </row>
     <row r="17">
@@ -2035,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.032947397695726598</v>
+        <v>-0.0329485159139975</v>
       </c>
     </row>
     <row r="18">
@@ -2043,7 +2043,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.0327991055336374</v>
+        <v>-0.032820053083204501</v>
       </c>
     </row>
     <row r="19">
@@ -2051,7 +2051,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.032684649023908302</v>
+        <v>-0.032692732650728598</v>
       </c>
     </row>
     <row r="20">
@@ -2059,7 +2059,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.032457724548389098</v>
+        <v>-0.032462773103013501</v>
       </c>
     </row>
     <row r="21">
@@ -2067,7 +2067,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.032264154346285899</v>
+        <v>-0.032284596356645601</v>
       </c>
     </row>
     <row r="22">
@@ -2075,7 +2075,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.0322419625752772</v>
+        <v>-0.0322564458042605</v>
       </c>
     </row>
     <row r="23">
@@ -2083,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.032094564483199597</v>
+        <v>-0.032116816422145901</v>
       </c>
     </row>
     <row r="24">
@@ -2091,7 +2091,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.032032375296386903</v>
+        <v>-0.032043096540350598</v>
       </c>
     </row>
     <row r="25">
@@ -2099,7 +2099,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.031751189675017999</v>
+        <v>-0.0317787982630654</v>
       </c>
     </row>
     <row r="26">
@@ -2107,7 +2107,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.031681536243610198</v>
+        <v>-0.031695617891474702</v>
       </c>
     </row>
     <row r="27">
@@ -2115,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.031511574636718699</v>
+        <v>-0.031519101327846202</v>
       </c>
     </row>
     <row r="28">
@@ -2123,7 +2123,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.031433482793713802</v>
+        <v>-0.031452260969227798</v>
       </c>
     </row>
     <row r="29">
@@ -2131,7 +2131,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.031272549593652103</v>
+        <v>-0.031271523382036599</v>
       </c>
     </row>
     <row r="30">
@@ -2139,7 +2139,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.031173100602915199</v>
+        <v>-0.031177508029354699</v>
       </c>
     </row>
     <row r="31">
@@ -2147,7 +2147,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.031031895005783901</v>
+        <v>-0.031064745416164101</v>
       </c>
     </row>
     <row r="32">
@@ -2155,7 +2155,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.030925621177873699</v>
+        <v>-0.030947421944217499</v>
       </c>
     </row>
     <row r="33">
@@ -2163,7 +2163,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.0308988768415649</v>
+        <v>-0.030903744068589398</v>
       </c>
     </row>
     <row r="34">
@@ -2171,7 +2171,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.030820119589701801</v>
+        <v>-0.030847317517712702</v>
       </c>
     </row>
     <row r="35">
@@ -2179,7 +2179,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.030704375952613001</v>
+        <v>-0.030712158908661</v>
       </c>
     </row>
     <row r="36">
@@ -2187,7 +2187,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.0306359780773451</v>
+        <v>-0.030669427441447499</v>
       </c>
     </row>
     <row r="37">
@@ -2195,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.030595307529502298</v>
+        <v>-0.0306141219409467</v>
       </c>
     </row>
     <row r="38">
@@ -2203,7 +2203,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.0305731916595081</v>
+        <v>-0.0305802486712487</v>
       </c>
     </row>
     <row r="39">
@@ -2211,7 +2211,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.030555524351940401</v>
+        <v>-0.030567878554073901</v>
       </c>
     </row>
     <row r="40">
@@ -2219,7 +2219,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.030525043749229899</v>
+        <v>-0.030551855917355299</v>
       </c>
     </row>
     <row r="41">
@@ -2227,7 +2227,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.030513462743725801</v>
+        <v>-0.0305405146209143</v>
       </c>
     </row>
     <row r="42">
@@ -2235,7 +2235,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.030500352718937099</v>
+        <v>-0.030506472460827699</v>
       </c>
     </row>
     <row r="43">
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.0304838761712906</v>
+        <v>-0.0305041734862944</v>
       </c>
     </row>
     <row r="44">
@@ -2251,7 +2251,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.0304598166048296</v>
+        <v>-0.030485076749706401</v>
       </c>
     </row>
     <row r="45">
@@ -2259,7 +2259,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.0301603342687774</v>
+        <v>-0.030176523826639101</v>
       </c>
     </row>
     <row r="46">
@@ -2267,7 +2267,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.030116966323312799</v>
+        <v>-0.0301354509101232</v>
       </c>
     </row>
     <row r="47">
@@ -2275,7 +2275,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.030071708277521099</v>
+        <v>-0.030081144643150998</v>
       </c>
     </row>
     <row r="48">
@@ -2283,7 +2283,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.0300704287550707</v>
+        <v>-0.030080231024535799</v>
       </c>
     </row>
     <row r="49">
@@ -2291,7 +2291,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.0299862471845803</v>
+        <v>-0.030017798044421298</v>
       </c>
     </row>
     <row r="50">
@@ -2299,7 +2299,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.029941613382272601</v>
+        <v>-0.0299591245150456</v>
       </c>
     </row>
     <row r="51">
@@ -2307,7 +2307,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.0298822038887776</v>
+        <v>-0.029897651896322899</v>
       </c>
     </row>
     <row r="52">
@@ -2315,7 +2315,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.029847676203396501</v>
+        <v>-0.029863713756483602</v>
       </c>
     </row>
     <row r="53">
@@ -2323,7 +2323,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.029821563713222098</v>
+        <v>-0.0298530142821463</v>
       </c>
     </row>
     <row r="54">
@@ -2331,7 +2331,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.029819825711765599</v>
+        <v>-0.029834807233559298</v>
       </c>
     </row>
     <row r="55">
@@ -2339,7 +2339,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.029717150140686099</v>
+        <v>-0.0297431121377475</v>
       </c>
     </row>
     <row r="56">
@@ -2347,7 +2347,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.029668757777830301</v>
+        <v>-0.029682425875874701</v>
       </c>
     </row>
     <row r="57">
@@ -2355,7 +2355,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.029517776946120199</v>
+        <v>-0.0295314946686882</v>
       </c>
     </row>
     <row r="58">
@@ -2363,7 +2363,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.029501964835022199</v>
+        <v>-0.029517218245919699</v>
       </c>
     </row>
     <row r="59">
@@ -2371,7 +2371,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.029477859968712598</v>
+        <v>-0.0294912768687185</v>
       </c>
     </row>
     <row r="60">
@@ -2379,7 +2379,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.029359415527363601</v>
+        <v>-0.0293824185339756</v>
       </c>
     </row>
     <row r="61">
@@ -2387,7 +2387,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.029200391503221901</v>
+        <v>-0.029222055216212</v>
       </c>
     </row>
     <row r="62">
@@ -2395,7 +2395,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.029147086138467199</v>
+        <v>-0.029167484496149799</v>
       </c>
     </row>
     <row r="63">
@@ -2403,7 +2403,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.029064729391874499</v>
+        <v>-0.0290769531516601</v>
       </c>
     </row>
     <row r="64">
@@ -2411,7 +2411,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.028995927933024301</v>
+        <v>-0.029002224226169399</v>
       </c>
     </row>
     <row r="65">
@@ -2419,7 +2419,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.028974291926203401</v>
+        <v>-0.028975693223947802</v>
       </c>
     </row>
     <row r="66">
@@ -2427,7 +2427,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.028911527707038399</v>
+        <v>-0.028924459039516001</v>
       </c>
     </row>
     <row r="67">
@@ -2435,7 +2435,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.028825815820977398</v>
+        <v>-0.0288396180559377</v>
       </c>
     </row>
     <row r="68">
@@ -2443,7 +2443,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.0286495979803368</v>
+        <v>-0.02866279610137</v>
       </c>
     </row>
     <row r="69">
@@ -2451,7 +2451,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.028513004948628001</v>
+        <v>-0.0285233398084065</v>
       </c>
     </row>
     <row r="70">
@@ -2459,7 +2459,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.028463846475497202</v>
+        <v>-0.0284627192198285</v>
       </c>
     </row>
     <row r="71">
@@ -2467,7 +2467,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.028411835131373599</v>
+        <v>-0.028437001333055</v>
       </c>
     </row>
     <row r="72">
@@ -2475,7 +2475,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.0282800632508108</v>
+        <v>-0.028286645501877799</v>
       </c>
     </row>
     <row r="73">
@@ -2483,7 +2483,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.028252649277991902</v>
+        <v>-0.028276445303414201</v>
       </c>
     </row>
     <row r="74">
@@ -2491,7 +2491,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.028204516436876801</v>
+        <v>-0.0282176749714944</v>
       </c>
     </row>
     <row r="75">
@@ -2499,7 +2499,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.028172923407103801</v>
+        <v>-0.028181238286461699</v>
       </c>
     </row>
     <row r="76">
@@ -2507,7 +2507,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.0281717723020262</v>
+        <v>-0.028176401165065</v>
       </c>
     </row>
     <row r="77">
@@ -2515,7 +2515,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.028129586331504499</v>
+        <v>-0.028142138778088101</v>
       </c>
     </row>
     <row r="78">
@@ -2523,7 +2523,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.028128458370331899</v>
+        <v>-0.028136907287957199</v>
       </c>
     </row>
     <row r="79">
@@ -2531,7 +2531,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.027991253839701899</v>
+        <v>-0.028021324836270099</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.027910195162830002</v>
+        <v>-0.027929557505096101</v>
       </c>
     </row>
     <row r="81">
@@ -2547,7 +2547,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.027798834277153701</v>
+        <v>-0.0278084977172974</v>
       </c>
     </row>
     <row r="82">
@@ -2555,7 +2555,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.027791018314006301</v>
+        <v>-0.027806058669655399</v>
       </c>
     </row>
     <row r="83">
@@ -2563,7 +2563,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.027761364457303098</v>
+        <v>-0.027776897397820102</v>
       </c>
     </row>
     <row r="84">
@@ -2571,7 +2571,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.027755904460846501</v>
+        <v>-0.027763448652566299</v>
       </c>
     </row>
     <row r="85">
@@ -2579,7 +2579,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.027751329576094899</v>
+        <v>-0.027756625056654501</v>
       </c>
     </row>
     <row r="86">
@@ -2587,7 +2587,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.027711609749910701</v>
+        <v>-0.0277099834856026</v>
       </c>
     </row>
     <row r="87">
@@ -2595,7 +2595,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.0277013342487928</v>
+        <v>-0.027709675622075498</v>
       </c>
     </row>
     <row r="88">
@@ -2603,7 +2603,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.0276202097153171</v>
+        <v>-0.027628949900377699</v>
       </c>
     </row>
     <row r="89">
@@ -2611,7 +2611,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.0275986515884948</v>
+        <v>-0.027594578894943499</v>
       </c>
     </row>
     <row r="90">
@@ -2619,7 +2619,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.027464211155042599</v>
+        <v>-0.027478885318730498</v>
       </c>
     </row>
     <row r="91">
@@ -2627,7 +2627,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.027431864288790801</v>
+        <v>-0.0274370992263669</v>
       </c>
     </row>
     <row r="92">
@@ -2635,7 +2635,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.027282086894725201</v>
+        <v>-0.027278654291596399</v>
       </c>
     </row>
     <row r="93">
@@ -2643,7 +2643,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.0272082247805201</v>
+        <v>-0.027227901907496601</v>
       </c>
     </row>
     <row r="94">
@@ -2651,7 +2651,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.0272078973312</v>
+        <v>-0.027215990635807999</v>
       </c>
     </row>
     <row r="95">
@@ -2659,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.027171084408156101</v>
+        <v>-0.027181987235893601</v>
       </c>
     </row>
     <row r="96">
@@ -2667,7 +2667,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.027136021867225701</v>
+        <v>-0.0271671150991597</v>
       </c>
     </row>
     <row r="97">
@@ -2675,7 +2675,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.0270568027959684</v>
+        <v>-0.027059044464400099</v>
       </c>
     </row>
     <row r="98">
@@ -2683,7 +2683,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.027051271641193302</v>
+        <v>-0.026950542443211802</v>
       </c>
     </row>
     <row r="99">
@@ -2691,7 +2691,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.026925632419816999</v>
+        <v>-0.0268689308087483</v>
       </c>
     </row>
     <row r="100">
@@ -2699,7 +2699,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.026860200267288501</v>
+        <v>-0.026858552261504898</v>
       </c>
     </row>
     <row r="101">
@@ -2707,7 +2707,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.0268420474557301</v>
+        <v>-0.0268529186039317</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2736,7 @@
         <v>102</v>
       </c>
       <c r="B2">
-        <v>0.041841982620463097</v>
+        <v>0.0418613068558219</v>
       </c>
     </row>
     <row r="3">
@@ -2744,7 +2744,7 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>0.041664079094641697</v>
+        <v>0.041690223432859601</v>
       </c>
     </row>
     <row r="4">
@@ -2752,7 +2752,7 @@
         <v>104</v>
       </c>
       <c r="B4">
-        <v>0.041550234555079502</v>
+        <v>0.041569840069924702</v>
       </c>
     </row>
     <row r="5">
@@ -2760,7 +2760,7 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>0.041402482408986301</v>
+        <v>0.041418130667554898</v>
       </c>
     </row>
     <row r="6">
@@ -2768,7 +2768,7 @@
         <v>106</v>
       </c>
       <c r="B6">
-        <v>0.0412427450021512</v>
+        <v>0.041259165859730003</v>
       </c>
     </row>
     <row r="7">
@@ -2776,7 +2776,7 @@
         <v>107</v>
       </c>
       <c r="B7">
-        <v>0.041166791488001703</v>
+        <v>0.041184350177463802</v>
       </c>
     </row>
     <row r="8">
@@ -2784,7 +2784,7 @@
         <v>108</v>
       </c>
       <c r="B8">
-        <v>0.040967344765465798</v>
+        <v>0.040983614909575</v>
       </c>
     </row>
     <row r="9">
@@ -2792,7 +2792,7 @@
         <v>109</v>
       </c>
       <c r="B9">
-        <v>0.040573227662535599</v>
+        <v>0.040582575220953702</v>
       </c>
     </row>
     <row r="10">
@@ -2800,7 +2800,7 @@
         <v>110</v>
       </c>
       <c r="B10">
-        <v>0.040354786075221999</v>
+        <v>0.040376862610835</v>
       </c>
     </row>
     <row r="11">
@@ -2808,7 +2808,7 @@
         <v>111</v>
       </c>
       <c r="B11">
-        <v>0.040001261197989899</v>
+        <v>0.0400222951816981</v>
       </c>
     </row>
     <row r="12">
@@ -2816,7 +2816,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>0.039904395329569797</v>
+        <v>0.039922582050342</v>
       </c>
     </row>
     <row r="13">
@@ -2824,7 +2824,7 @@
         <v>113</v>
       </c>
       <c r="B13">
-        <v>0.039719353343086898</v>
+        <v>0.039736870084825397</v>
       </c>
     </row>
     <row r="14">
@@ -2832,7 +2832,7 @@
         <v>114</v>
       </c>
       <c r="B14">
-        <v>0.039614661776040401</v>
+        <v>0.039641572718556603</v>
       </c>
     </row>
     <row r="15">
@@ -2840,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>0.039476215154209703</v>
+        <v>0.039494650384249597</v>
       </c>
     </row>
     <row r="16">
@@ -2848,7 +2848,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>0.039389631450404403</v>
+        <v>0.039416700088635903</v>
       </c>
     </row>
     <row r="17">
@@ -2856,7 +2856,7 @@
         <v>117</v>
       </c>
       <c r="B17">
-        <v>0.039186118564446898</v>
+        <v>0.039201943182720703</v>
       </c>
     </row>
     <row r="18">
@@ -2864,7 +2864,7 @@
         <v>118</v>
       </c>
       <c r="B18">
-        <v>0.039123998697662303</v>
+        <v>0.039146459687327897</v>
       </c>
     </row>
     <row r="19">
@@ -2872,7 +2872,7 @@
         <v>119</v>
       </c>
       <c r="B19">
-        <v>0.038653415109448003</v>
+        <v>0.038673400194888699</v>
       </c>
     </row>
     <row r="20">
@@ -2880,7 +2880,7 @@
         <v>120</v>
       </c>
       <c r="B20">
-        <v>0.038255939037791099</v>
+        <v>0.038278617060932899</v>
       </c>
     </row>
     <row r="21">
@@ -2888,7 +2888,7 @@
         <v>121</v>
       </c>
       <c r="B21">
-        <v>0.037924607475980303</v>
+        <v>0.037950685723160099</v>
       </c>
     </row>
     <row r="22">
@@ -2896,7 +2896,7 @@
         <v>122</v>
       </c>
       <c r="B22">
-        <v>0.037841824911977399</v>
+        <v>0.037856963126980198</v>
       </c>
     </row>
     <row r="23">
@@ -2904,7 +2904,7 @@
         <v>123</v>
       </c>
       <c r="B23">
-        <v>0.037824287226699199</v>
+        <v>0.037841953911454</v>
       </c>
     </row>
     <row r="24">
@@ -2912,7 +2912,7 @@
         <v>124</v>
       </c>
       <c r="B24">
-        <v>0.037557444381992197</v>
+        <v>0.037575878215566703</v>
       </c>
     </row>
     <row r="25">
@@ -2920,7 +2920,7 @@
         <v>125</v>
       </c>
       <c r="B25">
-        <v>0.037540082504804298</v>
+        <v>0.037563993558546199</v>
       </c>
     </row>
     <row r="26">
@@ -2928,7 +2928,7 @@
         <v>126</v>
       </c>
       <c r="B26">
-        <v>0.037528332820053897</v>
+        <v>0.037550506923769503</v>
       </c>
     </row>
     <row r="27">
@@ -2936,7 +2936,7 @@
         <v>127</v>
       </c>
       <c r="B27">
-        <v>0.037416083433745202</v>
+        <v>0.037440658647346303</v>
       </c>
     </row>
     <row r="28">
@@ -2944,7 +2944,7 @@
         <v>128</v>
       </c>
       <c r="B28">
-        <v>0.037296417977912798</v>
+        <v>0.037319840100325699</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>129</v>
       </c>
       <c r="B29">
-        <v>0.037201351724541303</v>
+        <v>0.037225060529914603</v>
       </c>
     </row>
     <row r="30">
@@ -2960,7 +2960,7 @@
         <v>130</v>
       </c>
       <c r="B30">
-        <v>0.037134117610304197</v>
+        <v>0.037144786736579699</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2968,7 @@
         <v>131</v>
       </c>
       <c r="B31">
-        <v>0.0370325723592482</v>
+        <v>0.037050489163012998</v>
       </c>
     </row>
     <row r="32">
@@ -2976,7 +2976,7 @@
         <v>132</v>
       </c>
       <c r="B32">
-        <v>0.036963905709909602</v>
+        <v>0.036987804533514197</v>
       </c>
     </row>
     <row r="33">
@@ -2984,7 +2984,7 @@
         <v>133</v>
       </c>
       <c r="B33">
-        <v>0.036797227224921902</v>
+        <v>0.0368203787666238</v>
       </c>
     </row>
     <row r="34">
@@ -2992,7 +2992,7 @@
         <v>134</v>
       </c>
       <c r="B34">
-        <v>0.036638101155000297</v>
+        <v>0.036662991894309598</v>
       </c>
     </row>
     <row r="35">
@@ -3000,7 +3000,7 @@
         <v>135</v>
       </c>
       <c r="B35">
-        <v>0.036620941615178801</v>
+        <v>0.036640051558930999</v>
       </c>
     </row>
     <row r="36">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="B36">
-        <v>0.036467870056084303</v>
+        <v>0.0364952114441447</v>
       </c>
     </row>
     <row r="37">
@@ -3016,7 +3016,7 @@
         <v>137</v>
       </c>
       <c r="B37">
-        <v>0.035998786310816003</v>
+        <v>0.036013651396506703</v>
       </c>
     </row>
     <row r="38">
@@ -3024,7 +3024,7 @@
         <v>138</v>
       </c>
       <c r="B38">
-        <v>0.035937130799451801</v>
+        <v>0.035954256012931798</v>
       </c>
     </row>
     <row r="39">
@@ -3032,7 +3032,7 @@
         <v>139</v>
       </c>
       <c r="B39">
-        <v>0.035895471091696801</v>
+        <v>0.035916176224017</v>
       </c>
     </row>
     <row r="40">
@@ -3040,7 +3040,7 @@
         <v>140</v>
       </c>
       <c r="B40">
-        <v>0.035870097452620202</v>
+        <v>0.035885652212589401</v>
       </c>
     </row>
     <row r="41">
@@ -3048,7 +3048,7 @@
         <v>141</v>
       </c>
       <c r="B41">
-        <v>0.035820082063740002</v>
+        <v>0.035832152842542299</v>
       </c>
     </row>
     <row r="42">
@@ -3056,7 +3056,7 @@
         <v>142</v>
       </c>
       <c r="B42">
-        <v>0.035705289696411097</v>
+        <v>0.035720706384986797</v>
       </c>
     </row>
     <row r="43">
@@ -3064,7 +3064,7 @@
         <v>143</v>
       </c>
       <c r="B43">
-        <v>0.035694651594168202</v>
+        <v>0.0357176234395735</v>
       </c>
     </row>
     <row r="44">
@@ -3072,7 +3072,7 @@
         <v>144</v>
       </c>
       <c r="B44">
-        <v>0.035471111316552201</v>
+        <v>0.035490511407742197</v>
       </c>
     </row>
     <row r="45">
@@ -3080,7 +3080,7 @@
         <v>145</v>
       </c>
       <c r="B45">
-        <v>0.035449333808913401</v>
+        <v>0.035466811129605702</v>
       </c>
     </row>
     <row r="46">
@@ -3088,7 +3088,7 @@
         <v>146</v>
       </c>
       <c r="B46">
-        <v>0.035099941936657802</v>
+        <v>0.035106983660856503</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3096,7 @@
         <v>147</v>
       </c>
       <c r="B47">
-        <v>0.0350873514915283</v>
+        <v>0.035103662612893799</v>
       </c>
     </row>
     <row r="48">
@@ -3104,7 +3104,7 @@
         <v>148</v>
       </c>
       <c r="B48">
-        <v>0.035025124632426699</v>
+        <v>0.035045689802666903</v>
       </c>
     </row>
     <row r="49">
@@ -3112,7 +3112,7 @@
         <v>149</v>
       </c>
       <c r="B49">
-        <v>0.034939480857231697</v>
+        <v>0.034962348937318997</v>
       </c>
     </row>
     <row r="50">
@@ -3120,7 +3120,7 @@
         <v>150</v>
       </c>
       <c r="B50">
-        <v>0.034892212722222697</v>
+        <v>0.0349081554927822</v>
       </c>
     </row>
     <row r="51">
@@ -3128,7 +3128,7 @@
         <v>151</v>
       </c>
       <c r="B51">
-        <v>0.034839513280936103</v>
+        <v>0.034857497342025298</v>
       </c>
     </row>
     <row r="52">
@@ -3136,7 +3136,7 @@
         <v>152</v>
       </c>
       <c r="B52">
-        <v>0.034659474669264903</v>
+        <v>0.034685599267827799</v>
       </c>
     </row>
     <row r="53">
@@ -3144,7 +3144,7 @@
         <v>153</v>
       </c>
       <c r="B53">
-        <v>0.034635524962139203</v>
+        <v>0.034655111722040999</v>
       </c>
     </row>
     <row r="54">
@@ -3152,7 +3152,7 @@
         <v>154</v>
       </c>
       <c r="B54">
-        <v>0.034634325309070298</v>
+        <v>0.034645600814030703</v>
       </c>
     </row>
     <row r="55">
@@ -3160,7 +3160,7 @@
         <v>155</v>
       </c>
       <c r="B55">
-        <v>0.034616089671327302</v>
+        <v>0.034632573347373498</v>
       </c>
     </row>
     <row r="56">
@@ -3168,7 +3168,7 @@
         <v>156</v>
       </c>
       <c r="B56">
-        <v>0.034523436650194403</v>
+        <v>0.034540182495730598</v>
       </c>
     </row>
     <row r="57">
@@ -3176,7 +3176,7 @@
         <v>157</v>
       </c>
       <c r="B57">
-        <v>0.034390262724508097</v>
+        <v>0.034417999695330603</v>
       </c>
     </row>
     <row r="58">
@@ -3184,7 +3184,7 @@
         <v>158</v>
       </c>
       <c r="B58">
-        <v>0.034356488661440303</v>
+        <v>0.034388538309840601</v>
       </c>
     </row>
     <row r="59">
@@ -3192,7 +3192,7 @@
         <v>159</v>
       </c>
       <c r="B59">
-        <v>0.034321194149445303</v>
+        <v>0.034339777724096</v>
       </c>
     </row>
     <row r="60">
@@ -3200,7 +3200,7 @@
         <v>160</v>
       </c>
       <c r="B60">
-        <v>0.034309947554798999</v>
+        <v>0.034333274300589398</v>
       </c>
     </row>
     <row r="61">
@@ -3208,7 +3208,7 @@
         <v>161</v>
       </c>
       <c r="B61">
-        <v>0.0343079770419061</v>
+        <v>0.034317233359452498</v>
       </c>
     </row>
     <row r="62">
@@ -3216,7 +3216,7 @@
         <v>162</v>
       </c>
       <c r="B62">
-        <v>0.034281838092358803</v>
+        <v>0.034283395315172799</v>
       </c>
     </row>
     <row r="63">
@@ -3224,7 +3224,7 @@
         <v>163</v>
       </c>
       <c r="B63">
-        <v>0.034244741369162002</v>
+        <v>0.034263158594883103</v>
       </c>
     </row>
     <row r="64">
@@ -3232,7 +3232,7 @@
         <v>164</v>
       </c>
       <c r="B64">
-        <v>0.034195700054001202</v>
+        <v>0.034219034818786603</v>
       </c>
     </row>
     <row r="65">
@@ -3240,7 +3240,7 @@
         <v>165</v>
       </c>
       <c r="B65">
-        <v>0.034182390174859897</v>
+        <v>0.034210392797568601</v>
       </c>
     </row>
     <row r="66">
@@ -3248,7 +3248,7 @@
         <v>166</v>
       </c>
       <c r="B66">
-        <v>0.034172386068017001</v>
+        <v>0.0341958561974295</v>
       </c>
     </row>
     <row r="67">
@@ -3256,7 +3256,7 @@
         <v>167</v>
       </c>
       <c r="B67">
-        <v>0.034128302357178501</v>
+        <v>0.034146793094639298</v>
       </c>
     </row>
     <row r="68">
@@ -3264,7 +3264,7 @@
         <v>168</v>
       </c>
       <c r="B68">
-        <v>0.034024475655673299</v>
+        <v>0.034048198837269797</v>
       </c>
     </row>
     <row r="69">
@@ -3272,7 +3272,7 @@
         <v>169</v>
       </c>
       <c r="B69">
-        <v>0.0339976916869007</v>
+        <v>0.034010409781916197</v>
       </c>
     </row>
     <row r="70">
@@ -3280,7 +3280,7 @@
         <v>170</v>
       </c>
       <c r="B70">
-        <v>0.033995000501423102</v>
+        <v>0.034008125974000998</v>
       </c>
     </row>
     <row r="71">
@@ -3288,7 +3288,7 @@
         <v>171</v>
       </c>
       <c r="B71">
-        <v>0.033988473026458403</v>
+        <v>0.033995871200557803</v>
       </c>
     </row>
     <row r="72">
@@ -3296,7 +3296,7 @@
         <v>172</v>
       </c>
       <c r="B72">
-        <v>0.033918255383018001</v>
+        <v>0.033943138966341699</v>
       </c>
     </row>
     <row r="73">
@@ -3304,7 +3304,7 @@
         <v>173</v>
       </c>
       <c r="B73">
-        <v>0.033803190153100703</v>
+        <v>0.033828015583012003</v>
       </c>
     </row>
     <row r="74">
@@ -3312,7 +3312,7 @@
         <v>174</v>
       </c>
       <c r="B74">
-        <v>0.033785709226359602</v>
+        <v>0.0337910682946643</v>
       </c>
     </row>
     <row r="75">
@@ -3320,7 +3320,7 @@
         <v>175</v>
       </c>
       <c r="B75">
-        <v>0.033765754679696301</v>
+        <v>0.033788799164899602</v>
       </c>
     </row>
     <row r="76">
@@ -3328,7 +3328,7 @@
         <v>176</v>
       </c>
       <c r="B76">
-        <v>0.033752553380762502</v>
+        <v>0.033772898442588503</v>
       </c>
     </row>
     <row r="77">
@@ -3336,7 +3336,7 @@
         <v>177</v>
       </c>
       <c r="B77">
-        <v>0.033751787891710697</v>
+        <v>0.033754935327912197</v>
       </c>
     </row>
     <row r="78">
@@ -3344,7 +3344,7 @@
         <v>178</v>
       </c>
       <c r="B78">
-        <v>0.0336818674103097</v>
+        <v>0.033678165025110597</v>
       </c>
     </row>
     <row r="79">
@@ -3352,7 +3352,7 @@
         <v>179</v>
       </c>
       <c r="B79">
-        <v>0.033596629069226197</v>
+        <v>0.033608492993317203</v>
       </c>
     </row>
     <row r="80">
@@ -3360,7 +3360,7 @@
         <v>180</v>
       </c>
       <c r="B80">
-        <v>0.033569891639999301</v>
+        <v>0.033587535209828198</v>
       </c>
     </row>
     <row r="81">
@@ -3368,7 +3368,7 @@
         <v>181</v>
       </c>
       <c r="B81">
-        <v>0.033541010615561397</v>
+        <v>0.033557138502737199</v>
       </c>
     </row>
     <row r="82">
@@ -3376,7 +3376,7 @@
         <v>182</v>
       </c>
       <c r="B82">
-        <v>0.033538961466684697</v>
+        <v>0.033555121719102098</v>
       </c>
     </row>
     <row r="83">
@@ -3384,7 +3384,7 @@
         <v>183</v>
       </c>
       <c r="B83">
-        <v>0.033519002271038302</v>
+        <v>0.033544393685085501</v>
       </c>
     </row>
     <row r="84">
@@ -3392,7 +3392,7 @@
         <v>184</v>
       </c>
       <c r="B84">
-        <v>0.0334775152341176</v>
+        <v>0.033492862978992101</v>
       </c>
     </row>
     <row r="85">
@@ -3400,7 +3400,7 @@
         <v>185</v>
       </c>
       <c r="B85">
-        <v>0.033444138785282101</v>
+        <v>0.033441097064356697</v>
       </c>
     </row>
     <row r="86">
@@ -3408,7 +3408,7 @@
         <v>186</v>
       </c>
       <c r="B86">
-        <v>0.0333565045069723</v>
+        <v>0.033375911346376498</v>
       </c>
     </row>
     <row r="87">
@@ -3416,7 +3416,7 @@
         <v>187</v>
       </c>
       <c r="B87">
-        <v>0.033346404747610699</v>
+        <v>0.033374390016288599</v>
       </c>
     </row>
     <row r="88">
@@ -3424,7 +3424,7 @@
         <v>188</v>
       </c>
       <c r="B88">
-        <v>0.033301719040934298</v>
+        <v>0.033332574909404999</v>
       </c>
     </row>
     <row r="89">
@@ -3432,7 +3432,7 @@
         <v>189</v>
       </c>
       <c r="B89">
-        <v>0.033210024444635</v>
+        <v>0.033233294364980501</v>
       </c>
     </row>
     <row r="90">
@@ -3440,7 +3440,7 @@
         <v>190</v>
       </c>
       <c r="B90">
-        <v>0.033204517280903199</v>
+        <v>0.033228329111919599</v>
       </c>
     </row>
     <row r="91">
@@ -3448,7 +3448,7 @@
         <v>191</v>
       </c>
       <c r="B91">
-        <v>0.033195679950603303</v>
+        <v>0.033201560897869097</v>
       </c>
     </row>
     <row r="92">
@@ -3456,7 +3456,7 @@
         <v>192</v>
       </c>
       <c r="B92">
-        <v>0.033166971671262098</v>
+        <v>0.033169826096216798</v>
       </c>
     </row>
     <row r="93">
@@ -3464,7 +3464,7 @@
         <v>193</v>
       </c>
       <c r="B93">
-        <v>0.033122926051261402</v>
+        <v>0.0331341540009161</v>
       </c>
     </row>
     <row r="94">
@@ -3472,7 +3472,7 @@
         <v>194</v>
       </c>
       <c r="B94">
-        <v>0.033094325318342201</v>
+        <v>0.033101083797859303</v>
       </c>
     </row>
     <row r="95">
@@ -3480,7 +3480,7 @@
         <v>195</v>
       </c>
       <c r="B95">
-        <v>0.033068129006717101</v>
+        <v>0.0330655066609249</v>
       </c>
     </row>
     <row r="96">
@@ -3488,7 +3488,7 @@
         <v>196</v>
       </c>
       <c r="B96">
-        <v>0.033063363668855303</v>
+        <v>0.033007323154637801</v>
       </c>
     </row>
     <row r="97">
@@ -3496,7 +3496,7 @@
         <v>197</v>
       </c>
       <c r="B97">
-        <v>0.033004478240294198</v>
+        <v>0.032981103589903103</v>
       </c>
     </row>
     <row r="98">
@@ -3504,7 +3504,7 @@
         <v>198</v>
       </c>
       <c r="B98">
-        <v>0.032971407305311201</v>
+        <v>0.032928967648475901</v>
       </c>
     </row>
     <row r="99">
@@ -3512,7 +3512,7 @@
         <v>199</v>
       </c>
       <c r="B99">
-        <v>0.0329271128290307</v>
+        <v>0.032923790288608701</v>
       </c>
     </row>
     <row r="100">
@@ -3520,7 +3520,7 @@
         <v>200</v>
       </c>
       <c r="B100">
-        <v>0.032911760144154402</v>
+        <v>0.032918167920183802</v>
       </c>
     </row>
     <row r="101">
@@ -3528,7 +3528,7 @@
         <v>201</v>
       </c>
       <c r="B101">
-        <v>0.032889553781312801</v>
+        <v>0.032892603250120098</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3557,7 @@
         <v>202</v>
       </c>
       <c r="B2">
-        <v>-0.046037310474733799</v>
+        <v>-0.046078821286886402</v>
       </c>
     </row>
     <row r="3">
@@ -3565,7 +3565,7 @@
         <v>203</v>
       </c>
       <c r="B3">
-        <v>-0.046037279625436599</v>
+        <v>-0.046052395114574901</v>
       </c>
     </row>
     <row r="4">
@@ -3573,7 +3573,7 @@
         <v>204</v>
       </c>
       <c r="B4">
-        <v>-0.045617819777039097</v>
+        <v>-0.045654048192644403</v>
       </c>
     </row>
     <row r="5">
@@ -3581,7 +3581,7 @@
         <v>205</v>
       </c>
       <c r="B5">
-        <v>-0.044488093532616999</v>
+        <v>-0.044511138963807199</v>
       </c>
     </row>
     <row r="6">
@@ -3589,7 +3589,7 @@
         <v>206</v>
       </c>
       <c r="B6">
-        <v>-0.044478727944425499</v>
+        <v>-0.0445046229229333</v>
       </c>
     </row>
     <row r="7">
@@ -3597,7 +3597,7 @@
         <v>207</v>
       </c>
       <c r="B7">
-        <v>-0.043997133412892797</v>
+        <v>-0.044018237321537299</v>
       </c>
     </row>
     <row r="8">
@@ -3605,7 +3605,7 @@
         <v>208</v>
       </c>
       <c r="B8">
-        <v>-0.043933626992836199</v>
+        <v>-0.043957301952425698</v>
       </c>
     </row>
     <row r="9">
@@ -3613,7 +3613,7 @@
         <v>209</v>
       </c>
       <c r="B9">
-        <v>-0.042717128522435803</v>
+        <v>-0.042756681350388598</v>
       </c>
     </row>
     <row r="10">
@@ -3621,7 +3621,7 @@
         <v>210</v>
       </c>
       <c r="B10">
-        <v>-0.042676793118926901</v>
+        <v>-0.042696035465993702</v>
       </c>
     </row>
     <row r="11">
@@ -3629,7 +3629,7 @@
         <v>211</v>
       </c>
       <c r="B11">
-        <v>-0.042670742237489699</v>
+        <v>-0.042687123112010297</v>
       </c>
     </row>
     <row r="12">
@@ -3637,7 +3637,7 @@
         <v>212</v>
       </c>
       <c r="B12">
-        <v>-0.0418826114464695</v>
+        <v>-0.041897681823478902</v>
       </c>
     </row>
     <row r="13">
@@ -3645,7 +3645,7 @@
         <v>213</v>
       </c>
       <c r="B13">
-        <v>-0.041392214521703503</v>
+        <v>-0.041426760013421202</v>
       </c>
     </row>
     <row r="14">
@@ -3653,7 +3653,7 @@
         <v>214</v>
       </c>
       <c r="B14">
-        <v>-0.041320623173645397</v>
+        <v>-0.041330627642983897</v>
       </c>
     </row>
     <row r="15">
@@ -3661,7 +3661,7 @@
         <v>215</v>
       </c>
       <c r="B15">
-        <v>-0.041286502179846002</v>
+        <v>-0.041310752182645197</v>
       </c>
     </row>
     <row r="16">
@@ -3669,7 +3669,7 @@
         <v>216</v>
       </c>
       <c r="B16">
-        <v>-0.041221348862068699</v>
+        <v>-0.041234785216837801</v>
       </c>
     </row>
     <row r="17">
@@ -3677,7 +3677,7 @@
         <v>217</v>
       </c>
       <c r="B17">
-        <v>-0.041082075601282797</v>
+        <v>-0.041111978301106397</v>
       </c>
     </row>
     <row r="18">
@@ -3685,7 +3685,7 @@
         <v>218</v>
       </c>
       <c r="B18">
-        <v>-0.04088620314461</v>
+        <v>-0.040921120623869198</v>
       </c>
     </row>
     <row r="19">
@@ -3693,7 +3693,7 @@
         <v>219</v>
       </c>
       <c r="B19">
-        <v>-0.040756693092228402</v>
+        <v>-0.040803016490040499</v>
       </c>
     </row>
     <row r="20">
@@ -3701,7 +3701,7 @@
         <v>220</v>
       </c>
       <c r="B20">
-        <v>-0.040698670992590801</v>
+        <v>-0.0407221651757722</v>
       </c>
     </row>
     <row r="21">
@@ -3709,7 +3709,7 @@
         <v>221</v>
       </c>
       <c r="B21">
-        <v>-0.040625080932546298</v>
+        <v>-0.040650159336361902</v>
       </c>
     </row>
     <row r="22">
@@ -3717,7 +3717,7 @@
         <v>222</v>
       </c>
       <c r="B22">
-        <v>-0.039937737283863198</v>
+        <v>-0.039960951132851801</v>
       </c>
     </row>
     <row r="23">
@@ -3725,7 +3725,7 @@
         <v>223</v>
       </c>
       <c r="B23">
-        <v>-0.039746915727537503</v>
+        <v>-0.039764673995889101</v>
       </c>
     </row>
     <row r="24">
@@ -3733,7 +3733,7 @@
         <v>224</v>
       </c>
       <c r="B24">
-        <v>-0.039725502099308897</v>
+        <v>-0.039760523342963303</v>
       </c>
     </row>
     <row r="25">
@@ -3741,7 +3741,7 @@
         <v>225</v>
       </c>
       <c r="B25">
-        <v>-0.039616340559480198</v>
+        <v>-0.0396238527146568</v>
       </c>
     </row>
     <row r="26">
@@ -3749,7 +3749,7 @@
         <v>226</v>
       </c>
       <c r="B26">
-        <v>-0.039601630552538798</v>
+        <v>-0.039610187718112602</v>
       </c>
     </row>
     <row r="27">
@@ -3757,7 +3757,7 @@
         <v>227</v>
       </c>
       <c r="B27">
-        <v>-0.039540179605427501</v>
+        <v>-0.039569405723717602</v>
       </c>
     </row>
     <row r="28">
@@ -3765,7 +3765,7 @@
         <v>228</v>
       </c>
       <c r="B28">
-        <v>-0.0395194161249217</v>
+        <v>-0.039561038854645299</v>
       </c>
     </row>
     <row r="29">
@@ -3773,7 +3773,7 @@
         <v>229</v>
       </c>
       <c r="B29">
-        <v>-0.039122519329851203</v>
+        <v>-0.039164435181061198</v>
       </c>
     </row>
     <row r="30">
@@ -3781,7 +3781,7 @@
         <v>230</v>
       </c>
       <c r="B30">
-        <v>-0.039039459475343</v>
+        <v>-0.039065624909322701</v>
       </c>
     </row>
     <row r="31">
@@ -3789,7 +3789,7 @@
         <v>231</v>
       </c>
       <c r="B31">
-        <v>-0.038952862692633497</v>
+        <v>-0.038957076871302898</v>
       </c>
     </row>
     <row r="32">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="B32">
-        <v>-0.038682510994734701</v>
+        <v>-0.038721031703491698</v>
       </c>
     </row>
     <row r="33">
@@ -3805,7 +3805,7 @@
         <v>233</v>
       </c>
       <c r="B33">
-        <v>-0.038659807874523701</v>
+        <v>-0.038706797305164201</v>
       </c>
     </row>
     <row r="34">
@@ -3813,7 +3813,7 @@
         <v>234</v>
       </c>
       <c r="B34">
-        <v>-0.038620087883042303</v>
+        <v>-0.038665787058669902</v>
       </c>
     </row>
     <row r="35">
@@ -3821,7 +3821,7 @@
         <v>235</v>
       </c>
       <c r="B35">
-        <v>-0.038338528968657699</v>
+        <v>-0.038358245112352897</v>
       </c>
     </row>
     <row r="36">
@@ -3829,7 +3829,7 @@
         <v>236</v>
       </c>
       <c r="B36">
-        <v>-0.038242590538563</v>
+        <v>-0.0382798607247095</v>
       </c>
     </row>
     <row r="37">
@@ -3837,7 +3837,7 @@
         <v>237</v>
       </c>
       <c r="B37">
-        <v>-0.0382401195563319</v>
+        <v>-0.0382378337670988</v>
       </c>
     </row>
     <row r="38">
@@ -3845,7 +3845,7 @@
         <v>238</v>
       </c>
       <c r="B38">
-        <v>-0.038132108057877097</v>
+        <v>-0.038173177938378801</v>
       </c>
     </row>
     <row r="39">
@@ -3853,7 +3853,7 @@
         <v>239</v>
       </c>
       <c r="B39">
-        <v>-0.038087361485779403</v>
+        <v>-0.038095920386026702</v>
       </c>
     </row>
     <row r="40">
@@ -3861,7 +3861,7 @@
         <v>240</v>
       </c>
       <c r="B40">
-        <v>-0.037980152743836801</v>
+        <v>-0.038002961677006397</v>
       </c>
     </row>
     <row r="41">
@@ -3869,7 +3869,7 @@
         <v>241</v>
       </c>
       <c r="B41">
-        <v>-0.037866452015572302</v>
+        <v>-0.037881790344700503</v>
       </c>
     </row>
     <row r="42">
@@ -3877,7 +3877,7 @@
         <v>242</v>
       </c>
       <c r="B42">
-        <v>-0.037829435150622003</v>
+        <v>-0.0378351269866503</v>
       </c>
     </row>
     <row r="43">
@@ -3885,7 +3885,7 @@
         <v>243</v>
       </c>
       <c r="B43">
-        <v>-0.037732582828364898</v>
+        <v>-0.037768442693170298</v>
       </c>
     </row>
     <row r="44">
@@ -3893,7 +3893,7 @@
         <v>244</v>
       </c>
       <c r="B44">
-        <v>-0.037553165158535101</v>
+        <v>-0.037600730084991901</v>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3901,7 @@
         <v>245</v>
       </c>
       <c r="B45">
-        <v>-0.037259395455211099</v>
+        <v>-0.037304706002404001</v>
       </c>
     </row>
     <row r="46">
@@ -3909,7 +3909,7 @@
         <v>246</v>
       </c>
       <c r="B46">
-        <v>-0.036686105361075298</v>
+        <v>-0.036721910721477201</v>
       </c>
     </row>
     <row r="47">
@@ -3917,7 +3917,7 @@
         <v>247</v>
       </c>
       <c r="B47">
-        <v>-0.036662579940090499</v>
+        <v>-0.0366935636551134</v>
       </c>
     </row>
     <row r="48">
@@ -3925,7 +3925,7 @@
         <v>248</v>
       </c>
       <c r="B48">
-        <v>-0.036598188079625303</v>
+        <v>-0.036600318941265898</v>
       </c>
     </row>
     <row r="49">
@@ -3933,7 +3933,7 @@
         <v>249</v>
       </c>
       <c r="B49">
-        <v>-0.036046944401780301</v>
+        <v>-0.036078614555086201</v>
       </c>
     </row>
     <row r="50">
@@ -3941,7 +3941,7 @@
         <v>250</v>
       </c>
       <c r="B50">
-        <v>-0.036009216307145001</v>
+        <v>-0.0360078897138306</v>
       </c>
     </row>
     <row r="51">
@@ -3949,7 +3949,7 @@
         <v>251</v>
       </c>
       <c r="B51">
-        <v>-0.035858292515566999</v>
+        <v>-0.035875599122362101</v>
       </c>
     </row>
     <row r="52">
@@ -3957,7 +3957,7 @@
         <v>252</v>
       </c>
       <c r="B52">
-        <v>-0.035723728969859099</v>
+        <v>-0.0357563445807988</v>
       </c>
     </row>
     <row r="53">
@@ -3965,7 +3965,7 @@
         <v>253</v>
       </c>
       <c r="B53">
-        <v>-0.035304308709815498</v>
+        <v>-0.035345436606389301</v>
       </c>
     </row>
     <row r="54">
@@ -3973,7 +3973,7 @@
         <v>254</v>
       </c>
       <c r="B54">
-        <v>-0.035261492951185198</v>
+        <v>-0.035252868669595303</v>
       </c>
     </row>
     <row r="55">
@@ -3981,7 +3981,7 @@
         <v>255</v>
       </c>
       <c r="B55">
-        <v>-0.035082852616867999</v>
+        <v>-0.035098601697887401</v>
       </c>
     </row>
     <row r="56">
@@ -3989,7 +3989,7 @@
         <v>256</v>
       </c>
       <c r="B56">
-        <v>-0.035033756807085301</v>
+        <v>-0.0350016901300437</v>
       </c>
     </row>
     <row r="57">
@@ -3997,7 +3997,7 @@
         <v>257</v>
       </c>
       <c r="B57">
-        <v>-0.034830041507180401</v>
+        <v>-0.034848214819455298</v>
       </c>
     </row>
     <row r="58">
@@ -4005,7 +4005,7 @@
         <v>258</v>
       </c>
       <c r="B58">
-        <v>-0.034693378226850403</v>
+        <v>-0.0348203107611108</v>
       </c>
     </row>
     <row r="59">
@@ -4013,7 +4013,7 @@
         <v>259</v>
       </c>
       <c r="B59">
-        <v>-0.034673933207370201</v>
+        <v>-0.034733911205940299</v>
       </c>
     </row>
     <row r="60">
@@ -4021,7 +4021,7 @@
         <v>260</v>
       </c>
       <c r="B60">
-        <v>-0.034570657717955401</v>
+        <v>-0.034698488046510198</v>
       </c>
     </row>
     <row r="61">
@@ -4029,7 +4029,7 @@
         <v>261</v>
       </c>
       <c r="B61">
-        <v>-0.034453612908597497</v>
+        <v>-0.034583815429138798</v>
       </c>
     </row>
     <row r="62">
@@ -4037,7 +4037,7 @@
         <v>262</v>
       </c>
       <c r="B62">
-        <v>-0.034356109845619098</v>
+        <v>-0.034466804299452897</v>
       </c>
     </row>
     <row r="63">
@@ -4045,7 +4045,7 @@
         <v>263</v>
       </c>
       <c r="B63">
-        <v>-0.034086731508032597</v>
+        <v>-0.034365033509941002</v>
       </c>
     </row>
     <row r="64">
@@ -4053,7 +4053,7 @@
         <v>264</v>
       </c>
       <c r="B64">
-        <v>-0.034019132211116999</v>
+        <v>-0.034032108797987903</v>
       </c>
     </row>
     <row r="65">
@@ -4061,7 +4061,7 @@
         <v>265</v>
       </c>
       <c r="B65">
-        <v>-0.033853841974409001</v>
+        <v>-0.033867628102128601</v>
       </c>
     </row>
     <row r="66">
@@ -4069,7 +4069,7 @@
         <v>266</v>
       </c>
       <c r="B66">
-        <v>-0.033666593906782102</v>
+        <v>-0.033864226630839003</v>
       </c>
     </row>
     <row r="67">
@@ -4077,7 +4077,7 @@
         <v>267</v>
       </c>
       <c r="B67">
-        <v>-0.033642641934561103</v>
+        <v>-0.033711493604858499</v>
       </c>
     </row>
     <row r="68">
@@ -4085,7 +4085,7 @@
         <v>268</v>
       </c>
       <c r="B68">
-        <v>-0.033591881794033301</v>
+        <v>-0.0336792818856805</v>
       </c>
     </row>
     <row r="69">
@@ -4093,7 +4093,7 @@
         <v>269</v>
       </c>
       <c r="B69">
-        <v>-0.033506983401764799</v>
+        <v>-0.0336185265222382</v>
       </c>
     </row>
     <row r="70">
@@ -4101,7 +4101,7 @@
         <v>270</v>
       </c>
       <c r="B70">
-        <v>-0.033155728265656999</v>
+        <v>-0.033515522729411197</v>
       </c>
     </row>
     <row r="71">
@@ -4109,7 +4109,7 @@
         <v>271</v>
       </c>
       <c r="B71">
-        <v>-0.033087260174249997</v>
+        <v>-0.033159820085214599</v>
       </c>
     </row>
     <row r="72">
@@ -4117,7 +4117,7 @@
         <v>272</v>
       </c>
       <c r="B72">
-        <v>-0.033056758282490599</v>
+        <v>-0.033130912679775699</v>
       </c>
     </row>
     <row r="73">
@@ -4125,7 +4125,7 @@
         <v>273</v>
       </c>
       <c r="B73">
-        <v>-0.032791388772710497</v>
+        <v>-0.033083162632529597</v>
       </c>
     </row>
     <row r="74">
@@ -4133,7 +4133,7 @@
         <v>274</v>
       </c>
       <c r="B74">
-        <v>-0.032700009274768203</v>
+        <v>-0.032814267763204702</v>
       </c>
     </row>
     <row r="75">
@@ -4141,7 +4141,7 @@
         <v>275</v>
       </c>
       <c r="B75">
-        <v>-0.032697245467550297</v>
+        <v>-0.0327323602568751</v>
       </c>
     </row>
     <row r="76">
@@ -4149,7 +4149,7 @@
         <v>276</v>
       </c>
       <c r="B76">
-        <v>-0.0325752462984664</v>
+        <v>-0.032716191294368702</v>
       </c>
     </row>
     <row r="77">
@@ -4157,7 +4157,7 @@
         <v>277</v>
       </c>
       <c r="B77">
-        <v>-0.032505663321508699</v>
+        <v>-0.032623629624315503</v>
       </c>
     </row>
     <row r="78">
@@ -4165,7 +4165,7 @@
         <v>278</v>
       </c>
       <c r="B78">
-        <v>-0.032404010198312801</v>
+        <v>-0.032543819828587901</v>
       </c>
     </row>
     <row r="79">
@@ -4173,7 +4173,7 @@
         <v>279</v>
       </c>
       <c r="B79">
-        <v>-0.032260677278653303</v>
+        <v>-0.032400694873853102</v>
       </c>
     </row>
     <row r="80">
@@ -4181,7 +4181,7 @@
         <v>280</v>
       </c>
       <c r="B80">
-        <v>-0.032250763565220802</v>
+        <v>-0.032265389373895399</v>
       </c>
     </row>
     <row r="81">
@@ -4189,7 +4189,7 @@
         <v>281</v>
       </c>
       <c r="B81">
-        <v>-0.0321564384186502</v>
+        <v>-0.032252489295638002</v>
       </c>
     </row>
     <row r="82">
@@ -4197,7 +4197,7 @@
         <v>282</v>
       </c>
       <c r="B82">
-        <v>-0.032118324970568199</v>
+        <v>-0.032196335785596199</v>
       </c>
     </row>
     <row r="83">
@@ -4205,7 +4205,7 @@
         <v>283</v>
       </c>
       <c r="B83">
-        <v>-0.031887737567556598</v>
+        <v>-0.032158617582691999</v>
       </c>
     </row>
     <row r="84">
@@ -4213,7 +4213,7 @@
         <v>284</v>
       </c>
       <c r="B84">
-        <v>-0.0318777299372415</v>
+        <v>-0.032131396859427501</v>
       </c>
     </row>
     <row r="85">
@@ -4221,7 +4221,7 @@
         <v>285</v>
       </c>
       <c r="B85">
-        <v>-0.031758016043434298</v>
+        <v>-0.031942844180111202</v>
       </c>
     </row>
     <row r="86">
@@ -4229,7 +4229,7 @@
         <v>286</v>
       </c>
       <c r="B86">
-        <v>-0.031704094881146401</v>
+        <v>-0.031935443345436403</v>
       </c>
     </row>
     <row r="87">
@@ -4237,7 +4237,7 @@
         <v>287</v>
       </c>
       <c r="B87">
-        <v>-0.031692593263276399</v>
+        <v>-0.031786498142212002</v>
       </c>
     </row>
     <row r="88">
@@ -4245,7 +4245,7 @@
         <v>288</v>
       </c>
       <c r="B88">
-        <v>-0.031345185053010899</v>
+        <v>-0.031702265871478098</v>
       </c>
     </row>
     <row r="89">
@@ -4253,7 +4253,7 @@
         <v>289</v>
       </c>
       <c r="B89">
-        <v>-0.031121784365592299</v>
+        <v>-0.031693397143429801</v>
       </c>
     </row>
     <row r="90">
@@ -4261,7 +4261,7 @@
         <v>290</v>
       </c>
       <c r="B90">
-        <v>-0.031092966662086101</v>
+        <v>-0.0313594654044149</v>
       </c>
     </row>
     <row r="91">
@@ -4269,7 +4269,7 @@
         <v>291</v>
       </c>
       <c r="B91">
-        <v>-0.031082822349826501</v>
+        <v>-0.031141177038120499</v>
       </c>
     </row>
     <row r="92">
@@ -4277,7 +4277,7 @@
         <v>292</v>
       </c>
       <c r="B92">
-        <v>-0.0307720388259725</v>
+        <v>-0.0311147968414382</v>
       </c>
     </row>
     <row r="93">
@@ -4285,7 +4285,7 @@
         <v>293</v>
       </c>
       <c r="B93">
-        <v>-0.030721217217055601</v>
+        <v>-0.031109534455293499</v>
       </c>
     </row>
     <row r="94">
@@ -4293,7 +4293,7 @@
         <v>294</v>
       </c>
       <c r="B94">
-        <v>-0.030529394349287701</v>
+        <v>-0.030796164632827701</v>
       </c>
     </row>
     <row r="95">
@@ -4301,7 +4301,7 @@
         <v>295</v>
       </c>
       <c r="B95">
-        <v>-0.0302756665205784</v>
+        <v>-0.030766694792878</v>
       </c>
     </row>
     <row r="96">
@@ -4309,7 +4309,7 @@
         <v>296</v>
       </c>
       <c r="B96">
-        <v>-0.030269946512433098</v>
+        <v>-0.030535830196573101</v>
       </c>
     </row>
     <row r="97">
@@ -4317,7 +4317,7 @@
         <v>297</v>
       </c>
       <c r="B97">
-        <v>-0.0300166529357252</v>
+        <v>-0.030293634926119299</v>
       </c>
     </row>
     <row r="98">
@@ -4325,7 +4325,7 @@
         <v>298</v>
       </c>
       <c r="B98">
-        <v>-0.029935850251060402</v>
+        <v>-0.030284261840883099</v>
       </c>
     </row>
     <row r="99">
@@ -4333,7 +4333,7 @@
         <v>299</v>
       </c>
       <c r="B99">
-        <v>-0.0298314193717675</v>
+        <v>-0.030017837234857899</v>
       </c>
     </row>
     <row r="100">
@@ -4341,7 +4341,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <v>-0.0296654998254797</v>
+        <v>-0.029979856715381101</v>
       </c>
     </row>
     <row r="101">
@@ -4349,7 +4349,7 @@
         <v>301</v>
       </c>
       <c r="B101">
-        <v>-0.029658951537906601</v>
+        <v>-0.0298609506030976</v>
       </c>
     </row>
   </sheetData>
@@ -4378,7 +4378,7 @@
         <v>303</v>
       </c>
       <c r="B2">
-        <v>0.047424743574286901</v>
+        <v>0.047455933262276602</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>304</v>
       </c>
       <c r="B3">
-        <v>0.0449285926483824</v>
+        <v>0.044933956685935299</v>
       </c>
     </row>
     <row r="4">
@@ -4394,7 +4394,7 @@
         <v>305</v>
       </c>
       <c r="B4">
-        <v>0.044523650611319798</v>
+        <v>0.044542935344169601</v>
       </c>
     </row>
     <row r="5">
@@ -4402,7 +4402,7 @@
         <v>306</v>
       </c>
       <c r="B5">
-        <v>0.043751651308226697</v>
+        <v>0.043750729507807701</v>
       </c>
     </row>
     <row r="6">
@@ -4410,7 +4410,7 @@
         <v>307</v>
       </c>
       <c r="B6">
-        <v>0.043689709090115603</v>
+        <v>0.0436835176762259</v>
       </c>
     </row>
     <row r="7">
@@ -4418,7 +4418,7 @@
         <v>308</v>
       </c>
       <c r="B7">
-        <v>0.043407782375605199</v>
+        <v>0.043399531293775197</v>
       </c>
     </row>
     <row r="8">
@@ -4426,7 +4426,7 @@
         <v>309</v>
       </c>
       <c r="B8">
-        <v>0.043177587255260601</v>
+        <v>0.043193161412289197</v>
       </c>
     </row>
     <row r="9">
@@ -4434,7 +4434,7 @@
         <v>310</v>
       </c>
       <c r="B9">
-        <v>0.042974195178195</v>
+        <v>0.042987404867333899</v>
       </c>
     </row>
     <row r="10">
@@ -4442,7 +4442,7 @@
         <v>311</v>
       </c>
       <c r="B10">
-        <v>0.042743119487859201</v>
+        <v>0.042769334052979197</v>
       </c>
     </row>
     <row r="11">
@@ -4450,7 +4450,7 @@
         <v>312</v>
       </c>
       <c r="B11">
-        <v>0.042733534583982102</v>
+        <v>0.042746198242272701</v>
       </c>
     </row>
     <row r="12">
@@ -4458,7 +4458,7 @@
         <v>313</v>
       </c>
       <c r="B12">
-        <v>0.042553053509914597</v>
+        <v>0.0425646209092558</v>
       </c>
     </row>
     <row r="13">
@@ -4466,7 +4466,7 @@
         <v>314</v>
       </c>
       <c r="B13">
-        <v>0.042351718493415597</v>
+        <v>0.0423919980168758</v>
       </c>
     </row>
     <row r="14">
@@ -4474,7 +4474,7 @@
         <v>315</v>
       </c>
       <c r="B14">
-        <v>0.042196444594429297</v>
+        <v>0.042216068127940903</v>
       </c>
     </row>
     <row r="15">
@@ -4482,7 +4482,7 @@
         <v>316</v>
       </c>
       <c r="B15">
-        <v>0.042132388954921697</v>
+        <v>0.042130340534959003</v>
       </c>
     </row>
     <row r="16">
@@ -4490,7 +4490,7 @@
         <v>317</v>
       </c>
       <c r="B16">
-        <v>0.0420716805706602</v>
+        <v>0.042082197500813698</v>
       </c>
     </row>
     <row r="17">
@@ -4498,7 +4498,7 @@
         <v>318</v>
       </c>
       <c r="B17">
-        <v>0.041973914909580801</v>
+        <v>0.041989893226155699</v>
       </c>
     </row>
     <row r="18">
@@ -4506,7 +4506,7 @@
         <v>319</v>
       </c>
       <c r="B18">
-        <v>0.041889286921707701</v>
+        <v>0.041928625043974002</v>
       </c>
     </row>
     <row r="19">
@@ -4514,7 +4514,7 @@
         <v>320</v>
       </c>
       <c r="B19">
-        <v>0.041655032847367497</v>
+        <v>0.041691982144304703</v>
       </c>
     </row>
     <row r="20">
@@ -4522,7 +4522,7 @@
         <v>321</v>
       </c>
       <c r="B20">
-        <v>0.041412854809548198</v>
+        <v>0.041424205154862698</v>
       </c>
     </row>
     <row r="21">
@@ -4530,7 +4530,7 @@
         <v>322</v>
       </c>
       <c r="B21">
-        <v>0.041155859527009397</v>
+        <v>0.041149972107450201</v>
       </c>
     </row>
     <row r="22">
@@ -4538,7 +4538,7 @@
         <v>323</v>
       </c>
       <c r="B22">
-        <v>0.041106775109464998</v>
+        <v>0.041137542696142899</v>
       </c>
     </row>
     <row r="23">
@@ -4546,7 +4546,7 @@
         <v>324</v>
       </c>
       <c r="B23">
-        <v>0.040949118970210301</v>
+        <v>0.040970880995942399</v>
       </c>
     </row>
     <row r="24">
@@ -4554,7 +4554,7 @@
         <v>325</v>
       </c>
       <c r="B24">
-        <v>0.040884829689884897</v>
+        <v>0.0409066598073125</v>
       </c>
     </row>
     <row r="25">
@@ -4562,7 +4562,7 @@
         <v>326</v>
       </c>
       <c r="B25">
-        <v>0.040794260914401199</v>
+        <v>0.0408404876316662</v>
       </c>
     </row>
     <row r="26">
@@ -4570,7 +4570,7 @@
         <v>327</v>
       </c>
       <c r="B26">
-        <v>0.040758745962390798</v>
+        <v>0.040777653930781699</v>
       </c>
     </row>
     <row r="27">
@@ -4578,7 +4578,7 @@
         <v>328</v>
       </c>
       <c r="B27">
-        <v>0.040738147502828899</v>
+        <v>0.0407774433880028</v>
       </c>
     </row>
     <row r="28">
@@ -4586,7 +4586,7 @@
         <v>329</v>
       </c>
       <c r="B28">
-        <v>0.040243019660045301</v>
+        <v>0.0402760119223795</v>
       </c>
     </row>
     <row r="29">
@@ -4594,7 +4594,7 @@
         <v>330</v>
       </c>
       <c r="B29">
-        <v>0.039859641377299901</v>
+        <v>0.039894161113041997</v>
       </c>
     </row>
     <row r="30">
@@ -4602,7 +4602,7 @@
         <v>331</v>
       </c>
       <c r="B30">
-        <v>0.039616087983328101</v>
+        <v>0.0396314635092073</v>
       </c>
     </row>
     <row r="31">
@@ -4610,7 +4610,7 @@
         <v>332</v>
       </c>
       <c r="B31">
-        <v>0.039584655063179999</v>
+        <v>0.039621133104078603</v>
       </c>
     </row>
     <row r="32">
@@ -4618,7 +4618,7 @@
         <v>333</v>
       </c>
       <c r="B32">
-        <v>0.039560315085495498</v>
+        <v>0.039571532924276898</v>
       </c>
     </row>
     <row r="33">
@@ -4626,7 +4626,7 @@
         <v>334</v>
       </c>
       <c r="B33">
-        <v>0.039271989908312599</v>
+        <v>0.039285123789659003</v>
       </c>
     </row>
     <row r="34">
@@ -4634,7 +4634,7 @@
         <v>335</v>
       </c>
       <c r="B34">
-        <v>0.039199875807835897</v>
+        <v>0.039245609206092699</v>
       </c>
     </row>
     <row r="35">
@@ -4642,7 +4642,7 @@
         <v>336</v>
       </c>
       <c r="B35">
-        <v>0.039168772842001903</v>
+        <v>0.039187372776230502</v>
       </c>
     </row>
     <row r="36">
@@ -4650,7 +4650,7 @@
         <v>337</v>
       </c>
       <c r="B36">
-        <v>0.039136019223993603</v>
+        <v>0.039150553928583402</v>
       </c>
     </row>
     <row r="37">
@@ -4658,7 +4658,7 @@
         <v>338</v>
       </c>
       <c r="B37">
-        <v>0.038779994721544302</v>
+        <v>0.038821795277658597</v>
       </c>
     </row>
     <row r="38">
@@ -4666,7 +4666,7 @@
         <v>339</v>
       </c>
       <c r="B38">
-        <v>0.038561572254965502</v>
+        <v>0.038583372810131897</v>
       </c>
     </row>
     <row r="39">
@@ -4674,7 +4674,7 @@
         <v>340</v>
       </c>
       <c r="B39">
-        <v>0.0385543656068617</v>
+        <v>0.038583162082441301</v>
       </c>
     </row>
     <row r="40">
@@ -4682,7 +4682,7 @@
         <v>341</v>
       </c>
       <c r="B40">
-        <v>0.038516818937560697</v>
+        <v>0.038561178511610901</v>
       </c>
     </row>
     <row r="41">
@@ -4690,7 +4690,7 @@
         <v>342</v>
       </c>
       <c r="B41">
-        <v>0.038444871158777399</v>
+        <v>0.038449512001661502</v>
       </c>
     </row>
     <row r="42">
@@ -4698,7 +4698,7 @@
         <v>343</v>
       </c>
       <c r="B42">
-        <v>0.038337225356842801</v>
+        <v>0.038350666659405203</v>
       </c>
     </row>
     <row r="43">
@@ -4706,7 +4706,7 @@
         <v>344</v>
       </c>
       <c r="B43">
-        <v>0.038316428832721301</v>
+        <v>0.038345370633944401</v>
       </c>
     </row>
     <row r="44">
@@ -4714,7 +4714,7 @@
         <v>345</v>
       </c>
       <c r="B44">
-        <v>0.038300341499237202</v>
+        <v>0.038307494143775302</v>
       </c>
     </row>
     <row r="45">
@@ -4722,7 +4722,7 @@
         <v>346</v>
       </c>
       <c r="B45">
-        <v>0.038215884023395701</v>
+        <v>0.038207614605567299</v>
       </c>
     </row>
     <row r="46">
@@ -4730,7 +4730,7 @@
         <v>347</v>
       </c>
       <c r="B46">
-        <v>0.038176549635140701</v>
+        <v>0.038200857198391003</v>
       </c>
     </row>
     <row r="47">
@@ -4738,7 +4738,7 @@
         <v>348</v>
       </c>
       <c r="B47">
-        <v>0.038130773981769499</v>
+        <v>0.038156011691993202</v>
       </c>
     </row>
     <row r="48">
@@ -4746,7 +4746,7 @@
         <v>349</v>
       </c>
       <c r="B48">
-        <v>0.038016290960435101</v>
+        <v>0.038039428912597699</v>
       </c>
     </row>
     <row r="49">
@@ -4754,7 +4754,7 @@
         <v>350</v>
       </c>
       <c r="B49">
-        <v>0.0379516281257311</v>
+        <v>0.037985463000340003</v>
       </c>
     </row>
     <row r="50">
@@ -4762,7 +4762,7 @@
         <v>351</v>
       </c>
       <c r="B50">
-        <v>0.037846566781193303</v>
+        <v>0.037872805552790302</v>
       </c>
     </row>
     <row r="51">
@@ -4770,7 +4770,7 @@
         <v>352</v>
       </c>
       <c r="B51">
-        <v>0.037706475251079799</v>
+        <v>0.037698213545687101</v>
       </c>
     </row>
     <row r="52">
@@ -4778,7 +4778,7 @@
         <v>353</v>
       </c>
       <c r="B52">
-        <v>0.037627213478539298</v>
+        <v>0.0376121160663263</v>
       </c>
     </row>
     <row r="53">
@@ -4786,7 +4786,7 @@
         <v>354</v>
       </c>
       <c r="B53">
-        <v>0.037585293832294399</v>
+        <v>0.037601457092216697</v>
       </c>
     </row>
     <row r="54">
@@ -4794,7 +4794,7 @@
         <v>355</v>
       </c>
       <c r="B54">
-        <v>0.037428191499254498</v>
+        <v>0.037448445153692902</v>
       </c>
     </row>
     <row r="55">
@@ -4802,7 +4802,7 @@
         <v>356</v>
       </c>
       <c r="B55">
-        <v>0.037343949450839402</v>
+        <v>0.037362810150068697</v>
       </c>
     </row>
     <row r="56">
@@ -4810,7 +4810,7 @@
         <v>357</v>
       </c>
       <c r="B56">
-        <v>0.037340419350210798</v>
+        <v>0.037361731185561999</v>
       </c>
     </row>
     <row r="57">
@@ -4818,7 +4818,7 @@
         <v>358</v>
       </c>
       <c r="B57">
-        <v>0.037302828954868597</v>
+        <v>0.037334837543727101</v>
       </c>
     </row>
     <row r="58">
@@ -4826,7 +4826,7 @@
         <v>359</v>
       </c>
       <c r="B58">
-        <v>0.037278493698711397</v>
+        <v>0.037319983188586502</v>
       </c>
     </row>
     <row r="59">
@@ -4834,7 +4834,7 @@
         <v>360</v>
       </c>
       <c r="B59">
-        <v>0.037189836513383798</v>
+        <v>0.037217809437143701</v>
       </c>
     </row>
     <row r="60">
@@ -4842,7 +4842,7 @@
         <v>361</v>
       </c>
       <c r="B60">
-        <v>0.037108213155738701</v>
+        <v>0.037121711757730998</v>
       </c>
     </row>
     <row r="61">
@@ -4850,7 +4850,7 @@
         <v>362</v>
       </c>
       <c r="B61">
-        <v>0.037094198864420697</v>
+        <v>0.0371012667051209</v>
       </c>
     </row>
     <row r="62">
@@ -4858,7 +4858,7 @@
         <v>363</v>
       </c>
       <c r="B62">
-        <v>0.037058996516867802</v>
+        <v>0.037080138215611798</v>
       </c>
     </row>
     <row r="63">
@@ -4866,7 +4866,7 @@
         <v>364</v>
       </c>
       <c r="B63">
-        <v>0.037033438674031298</v>
+        <v>0.037032129208290299</v>
       </c>
     </row>
     <row r="64">
@@ -4874,7 +4874,7 @@
         <v>365</v>
       </c>
       <c r="B64">
-        <v>0.036908605825068198</v>
+        <v>0.036953068137483697</v>
       </c>
     </row>
     <row r="65">
@@ -4882,7 +4882,7 @@
         <v>366</v>
       </c>
       <c r="B65">
-        <v>0.036900746737123097</v>
+        <v>0.0369333800529867</v>
       </c>
     </row>
     <row r="66">
@@ -4890,7 +4890,7 @@
         <v>367</v>
       </c>
       <c r="B66">
-        <v>0.036880167133274099</v>
+        <v>0.036897887018621497</v>
       </c>
     </row>
     <row r="67">
@@ -4898,7 +4898,7 @@
         <v>368</v>
       </c>
       <c r="B67">
-        <v>0.036812689301565997</v>
+        <v>0.036849074298711197</v>
       </c>
     </row>
     <row r="68">
@@ -4906,7 +4906,7 @@
         <v>369</v>
       </c>
       <c r="B68">
-        <v>0.036786602735155202</v>
+        <v>0.036806000270933899</v>
       </c>
     </row>
     <row r="69">
@@ -4914,7 +4914,7 @@
         <v>370</v>
       </c>
       <c r="B69">
-        <v>0.036734942763902698</v>
+        <v>0.036767264511469597</v>
       </c>
     </row>
     <row r="70">
@@ -4922,7 +4922,7 @@
         <v>371</v>
       </c>
       <c r="B70">
-        <v>0.036724536821168503</v>
+        <v>0.036723387316388099</v>
       </c>
     </row>
     <row r="71">
@@ -4930,7 +4930,7 @@
         <v>372</v>
       </c>
       <c r="B71">
-        <v>0.036695824119764298</v>
+        <v>0.0367036402383892</v>
       </c>
     </row>
     <row r="72">
@@ -4938,7 +4938,7 @@
         <v>373</v>
       </c>
       <c r="B72">
-        <v>0.036595173451596102</v>
+        <v>0.036628226998402701</v>
       </c>
     </row>
     <row r="73">
@@ -4946,7 +4946,7 @@
         <v>374</v>
       </c>
       <c r="B73">
-        <v>0.036433488451752698</v>
+        <v>0.036447699876115</v>
       </c>
     </row>
     <row r="74">
@@ -4954,7 +4954,7 @@
         <v>375</v>
       </c>
       <c r="B74">
-        <v>0.036416319338718299</v>
+        <v>0.0364436695717123</v>
       </c>
     </row>
     <row r="75">
@@ -4962,7 +4962,7 @@
         <v>376</v>
       </c>
       <c r="B75">
-        <v>0.036378337129077197</v>
+        <v>0.036390241735186298</v>
       </c>
     </row>
     <row r="76">
@@ -4970,7 +4970,7 @@
         <v>377</v>
       </c>
       <c r="B76">
-        <v>0.036312363505393297</v>
+        <v>0.036357317146389997</v>
       </c>
     </row>
     <row r="77">
@@ -4978,7 +4978,7 @@
         <v>378</v>
       </c>
       <c r="B77">
-        <v>0.036237202758756998</v>
+        <v>0.036260893505037098</v>
       </c>
     </row>
     <row r="78">
@@ -4986,7 +4986,7 @@
         <v>379</v>
       </c>
       <c r="B78">
-        <v>0.036110985769913298</v>
+        <v>0.036155889287073903</v>
       </c>
     </row>
     <row r="79">
@@ -4994,7 +4994,7 @@
         <v>380</v>
       </c>
       <c r="B79">
-        <v>0.035940222036434398</v>
+        <v>0.035981313856701898</v>
       </c>
     </row>
     <row r="80">
@@ -5002,7 +5002,7 @@
         <v>381</v>
       </c>
       <c r="B80">
-        <v>0.035907883761371197</v>
+        <v>0.035932842845852103</v>
       </c>
     </row>
     <row r="81">
@@ -5010,7 +5010,7 @@
         <v>382</v>
       </c>
       <c r="B81">
-        <v>0.0358478593487618</v>
+        <v>0.035881759179063402</v>
       </c>
     </row>
     <row r="82">
@@ -5018,7 +5018,7 @@
         <v>383</v>
       </c>
       <c r="B82">
-        <v>0.035763838882675703</v>
+        <v>0.035797777383976</v>
       </c>
     </row>
     <row r="83">
@@ -5026,7 +5026,7 @@
         <v>384</v>
       </c>
       <c r="B83">
-        <v>0.0357177170127502</v>
+        <v>0.035731309925047403</v>
       </c>
     </row>
     <row r="84">
@@ -5034,7 +5034,7 @@
         <v>385</v>
       </c>
       <c r="B84">
-        <v>0.035597669255454302</v>
+        <v>0.0356328791750401</v>
       </c>
     </row>
     <row r="85">
@@ -5042,7 +5042,7 @@
         <v>386</v>
       </c>
       <c r="B85">
-        <v>0.035555161298701399</v>
+        <v>0.035574886589211298</v>
       </c>
     </row>
     <row r="86">
@@ -5050,7 +5050,7 @@
         <v>387</v>
       </c>
       <c r="B86">
-        <v>0.035536161927126803</v>
+        <v>0.0355551453239474</v>
       </c>
     </row>
     <row r="87">
@@ -5058,7 +5058,7 @@
         <v>388</v>
       </c>
       <c r="B87">
-        <v>0.035530044756643599</v>
+        <v>0.035517610937558203</v>
       </c>
     </row>
     <row r="88">
@@ -5066,7 +5066,7 @@
         <v>389</v>
       </c>
       <c r="B88">
-        <v>0.035458201911975303</v>
+        <v>0.035494209179845297</v>
       </c>
     </row>
     <row r="89">
@@ -5074,7 +5074,7 @@
         <v>390</v>
       </c>
       <c r="B89">
-        <v>0.035340691188101299</v>
+        <v>0.035327200406620997</v>
       </c>
     </row>
     <row r="90">
@@ -5082,7 +5082,7 @@
         <v>391</v>
       </c>
       <c r="B90">
-        <v>0.035334173337860701</v>
+        <v>0.035320885610170598</v>
       </c>
     </row>
     <row r="91">
@@ -5090,7 +5090,7 @@
         <v>392</v>
       </c>
       <c r="B91">
-        <v>0.035286914472400399</v>
+        <v>0.0352908180465289</v>
       </c>
     </row>
     <row r="92">
@@ -5098,7 +5098,7 @@
         <v>393</v>
       </c>
       <c r="B92">
-        <v>0.0352596568547398</v>
+        <v>0.0352693775463572</v>
       </c>
     </row>
     <row r="93">
@@ -5106,7 +5106,7 @@
         <v>394</v>
       </c>
       <c r="B93">
-        <v>0.035234233777598697</v>
+        <v>0.035247938139360599</v>
       </c>
     </row>
     <row r="94">
@@ -5114,7 +5114,7 @@
         <v>395</v>
       </c>
       <c r="B94">
-        <v>0.035234077961385002</v>
+        <v>0.0352453370313216</v>
       </c>
     </row>
     <row r="95">
@@ -5122,7 +5122,7 @@
         <v>396</v>
       </c>
       <c r="B95">
-        <v>0.0351828498744583</v>
+        <v>0.035198508209979697</v>
       </c>
     </row>
     <row r="96">
@@ -5130,7 +5130,7 @@
         <v>397</v>
       </c>
       <c r="B96">
-        <v>0.035149360645432698</v>
+        <v>0.035157516539701499</v>
       </c>
     </row>
     <row r="97">
@@ -5138,7 +5138,7 @@
         <v>398</v>
       </c>
       <c r="B97">
-        <v>0.035139575519710697</v>
+        <v>0.035152283878227102</v>
       </c>
     </row>
     <row r="98">
@@ -5146,7 +5146,7 @@
         <v>399</v>
       </c>
       <c r="B98">
-        <v>0.035128475800422797</v>
+        <v>0.035146237177663402</v>
       </c>
     </row>
     <row r="99">
@@ -5154,7 +5154,7 @@
         <v>400</v>
       </c>
       <c r="B99">
-        <v>0.035118290304043003</v>
+        <v>0.035116169487530602</v>
       </c>
     </row>
     <row r="100">
@@ -5162,7 +5162,7 @@
         <v>401</v>
       </c>
       <c r="B100">
-        <v>0.035051049941022802</v>
+        <v>0.035055991368754397</v>
       </c>
     </row>
     <row r="101">
@@ -5170,7 +5170,7 @@
         <v>402</v>
       </c>
       <c r="B101">
-        <v>0.034913791674014601</v>
+        <v>0.0349160252245512</v>
       </c>
     </row>
   </sheetData>
@@ -5199,7 +5199,7 @@
         <v>403</v>
       </c>
       <c r="B2">
-        <v>-0.048608156912737698</v>
+        <v>-0.048646111997642898</v>
       </c>
     </row>
     <row r="3">
@@ -5207,7 +5207,7 @@
         <v>404</v>
       </c>
       <c r="B3">
-        <v>-0.045774785469157503</v>
+        <v>-0.045803883286187501</v>
       </c>
     </row>
     <row r="4">
@@ -5215,7 +5215,7 @@
         <v>405</v>
       </c>
       <c r="B4">
-        <v>-0.045371137495651997</v>
+        <v>-0.045408559583332501</v>
       </c>
     </row>
     <row r="5">
@@ -5223,7 +5223,7 @@
         <v>406</v>
       </c>
       <c r="B5">
-        <v>-0.044892006906144297</v>
+        <v>-0.044971336020811298</v>
       </c>
     </row>
     <row r="6">
@@ -5231,7 +5231,7 @@
         <v>407</v>
       </c>
       <c r="B6">
-        <v>-0.0433303281522784</v>
+        <v>-0.043346936240795698</v>
       </c>
     </row>
     <row r="7">
@@ -5239,7 +5239,7 @@
         <v>408</v>
       </c>
       <c r="B7">
-        <v>-0.043239580611494501</v>
+        <v>-0.043293132403136099</v>
       </c>
     </row>
     <row r="8">
@@ -5247,7 +5247,7 @@
         <v>409</v>
       </c>
       <c r="B8">
-        <v>-0.042949673698495797</v>
+        <v>-0.043032281480698598</v>
       </c>
     </row>
     <row r="9">
@@ -5255,7 +5255,7 @@
         <v>410</v>
       </c>
       <c r="B9">
-        <v>-0.042855337472016197</v>
+        <v>-0.042935589927235902</v>
       </c>
     </row>
     <row r="10">
@@ -5263,7 +5263,7 @@
         <v>411</v>
       </c>
       <c r="B10">
-        <v>-0.042107536136746899</v>
+        <v>-0.042123697757019803</v>
       </c>
     </row>
     <row r="11">
@@ -5271,7 +5271,7 @@
         <v>412</v>
       </c>
       <c r="B11">
-        <v>-0.042031685480474298</v>
+        <v>-0.042065260325114498</v>
       </c>
     </row>
     <row r="12">
@@ -5279,7 +5279,7 @@
         <v>413</v>
       </c>
       <c r="B12">
-        <v>-0.041772464857724803</v>
+        <v>-0.041831123193994499</v>
       </c>
     </row>
     <row r="13">
@@ -5287,7 +5287,7 @@
         <v>414</v>
       </c>
       <c r="B13">
-        <v>-0.041738358683435901</v>
+        <v>-0.041787153049370598</v>
       </c>
     </row>
     <row r="14">
@@ -5295,7 +5295,7 @@
         <v>415</v>
       </c>
       <c r="B14">
-        <v>-0.041439995391828702</v>
+        <v>-0.041552294997391298</v>
       </c>
     </row>
     <row r="15">
@@ -5303,7 +5303,7 @@
         <v>416</v>
       </c>
       <c r="B15">
-        <v>-0.041348591278888298</v>
+        <v>-0.0413626440805877</v>
       </c>
     </row>
     <row r="16">
@@ -5311,7 +5311,7 @@
         <v>417</v>
       </c>
       <c r="B16">
-        <v>-0.041166510836430401</v>
+        <v>-0.041158505828882801</v>
       </c>
     </row>
     <row r="17">
@@ -5319,7 +5319,7 @@
         <v>418</v>
       </c>
       <c r="B17">
-        <v>-0.040908755159440799</v>
+        <v>-0.041038777965807002</v>
       </c>
     </row>
     <row r="18">
@@ -5327,7 +5327,7 @@
         <v>419</v>
       </c>
       <c r="B18">
-        <v>-0.040837118908477903</v>
+        <v>-0.0409304724502534</v>
       </c>
     </row>
     <row r="19">
@@ -5335,7 +5335,7 @@
         <v>420</v>
       </c>
       <c r="B19">
-        <v>-0.040667862675684702</v>
+        <v>-0.040663157255634901</v>
       </c>
     </row>
     <row r="20">
@@ -5343,7 +5343,7 @@
         <v>421</v>
       </c>
       <c r="B20">
-        <v>-0.039906459247276899</v>
+        <v>-0.039967037663523698</v>
       </c>
     </row>
     <row r="21">
@@ -5351,7 +5351,7 @@
         <v>422</v>
       </c>
       <c r="B21">
-        <v>-0.039722097723544798</v>
+        <v>-0.039783452393697002</v>
       </c>
     </row>
     <row r="22">
@@ -5359,7 +5359,7 @@
         <v>423</v>
       </c>
       <c r="B22">
-        <v>-0.039165759286378103</v>
+        <v>-0.039748160695873197</v>
       </c>
     </row>
     <row r="23">
@@ -5367,7 +5367,7 @@
         <v>424</v>
       </c>
       <c r="B23">
-        <v>-0.038388336094293901</v>
+        <v>-0.0392206839297361</v>
       </c>
     </row>
     <row r="24">
@@ -5375,7 +5375,7 @@
         <v>425</v>
       </c>
       <c r="B24">
-        <v>-0.038362373541943898</v>
+        <v>-0.0384475810566468</v>
       </c>
     </row>
     <row r="25">
@@ -5383,7 +5383,7 @@
         <v>426</v>
       </c>
       <c r="B25">
-        <v>-0.038037247426712301</v>
+        <v>-0.038387983898013497</v>
       </c>
     </row>
     <row r="26">
@@ -5391,7 +5391,7 @@
         <v>427</v>
       </c>
       <c r="B26">
-        <v>-0.03730655028141</v>
+        <v>-0.038098341311378597</v>
       </c>
     </row>
     <row r="27">
@@ -5399,7 +5399,7 @@
         <v>428</v>
       </c>
       <c r="B27">
-        <v>-0.0367952858169125</v>
+        <v>-0.037346203956434398</v>
       </c>
     </row>
     <row r="28">
@@ -5407,7 +5407,7 @@
         <v>429</v>
       </c>
       <c r="B28">
-        <v>-0.036610519360627702</v>
+        <v>-0.036840834382654598</v>
       </c>
     </row>
     <row r="29">
@@ -5415,7 +5415,7 @@
         <v>430</v>
       </c>
       <c r="B29">
-        <v>-0.036268312243442</v>
+        <v>-0.036629855936028403</v>
       </c>
     </row>
     <row r="30">
@@ -5423,7 +5423,7 @@
         <v>431</v>
       </c>
       <c r="B30">
-        <v>-0.036168201624153497</v>
+        <v>-0.036350368792459002</v>
       </c>
     </row>
     <row r="31">
@@ -5431,7 +5431,7 @@
         <v>432</v>
       </c>
       <c r="B31">
-        <v>-0.036115947968165002</v>
+        <v>-0.036235528491079701</v>
       </c>
     </row>
     <row r="32">
@@ -5439,7 +5439,7 @@
         <v>433</v>
       </c>
       <c r="B32">
-        <v>-0.035985755183196598</v>
+        <v>-0.036204812491103397</v>
       </c>
     </row>
     <row r="33">
@@ -5447,7 +5447,7 @@
         <v>434</v>
       </c>
       <c r="B33">
-        <v>-0.0356516406061443</v>
+        <v>-0.036112207162686698</v>
       </c>
     </row>
     <row r="34">
@@ -5455,7 +5455,7 @@
         <v>435</v>
       </c>
       <c r="B34">
-        <v>-0.034989562951521599</v>
+        <v>-0.035632236418645602</v>
       </c>
     </row>
     <row r="35">
@@ -5463,7 +5463,7 @@
         <v>436</v>
       </c>
       <c r="B35">
-        <v>-0.034780649939830301</v>
+        <v>-0.035033456150984903</v>
       </c>
     </row>
     <row r="36">
@@ -5471,7 +5471,7 @@
         <v>437</v>
       </c>
       <c r="B36">
-        <v>-0.034766810391114802</v>
+        <v>-0.034893487336581999</v>
       </c>
     </row>
     <row r="37">
@@ -5479,7 +5479,7 @@
         <v>438</v>
       </c>
       <c r="B37">
-        <v>-0.034582750003511298</v>
+        <v>-0.034803830290659699</v>
       </c>
     </row>
     <row r="38">
@@ -5487,7 +5487,7 @@
         <v>439</v>
       </c>
       <c r="B38">
-        <v>-0.034578177692545897</v>
+        <v>-0.034657598930108099</v>
       </c>
     </row>
     <row r="39">
@@ -5495,7 +5495,7 @@
         <v>440</v>
       </c>
       <c r="B39">
-        <v>-0.034570657067022899</v>
+        <v>-0.034635114490505603</v>
       </c>
     </row>
     <row r="40">
@@ -5503,7 +5503,7 @@
         <v>441</v>
       </c>
       <c r="B40">
-        <v>-0.033917988244239403</v>
+        <v>-0.034543258431210103</v>
       </c>
     </row>
     <row r="41">
@@ -5511,7 +5511,7 @@
         <v>442</v>
       </c>
       <c r="B41">
-        <v>-0.033828114379971803</v>
+        <v>-0.033997140905460799</v>
       </c>
     </row>
     <row r="42">
@@ -5519,7 +5519,7 @@
         <v>443</v>
       </c>
       <c r="B42">
-        <v>-0.033580222781565097</v>
+        <v>-0.033877333848979403</v>
       </c>
     </row>
     <row r="43">
@@ -5527,7 +5527,7 @@
         <v>444</v>
       </c>
       <c r="B43">
-        <v>-0.033526561841193202</v>
+        <v>-0.033669296082365199</v>
       </c>
     </row>
     <row r="44">
@@ -5535,7 +5535,7 @@
         <v>445</v>
       </c>
       <c r="B44">
-        <v>-0.033479021669096602</v>
+        <v>-0.0335816420630742</v>
       </c>
     </row>
     <row r="45">
@@ -5543,7 +5543,7 @@
         <v>446</v>
       </c>
       <c r="B45">
-        <v>-0.033283947206561602</v>
+        <v>-0.033504659059483098</v>
       </c>
     </row>
     <row r="46">
@@ -5551,7 +5551,7 @@
         <v>447</v>
       </c>
       <c r="B46">
-        <v>-0.033094096340621097</v>
+        <v>-0.033372631010771099</v>
       </c>
     </row>
     <row r="47">
@@ -5559,7 +5559,7 @@
         <v>448</v>
       </c>
       <c r="B47">
-        <v>-0.0330396149086132</v>
+        <v>-0.033154894862700998</v>
       </c>
     </row>
     <row r="48">
@@ -5567,7 +5567,7 @@
         <v>449</v>
       </c>
       <c r="B48">
-        <v>-0.032999149228597903</v>
+        <v>-0.033111468785562398</v>
       </c>
     </row>
     <row r="49">
@@ -5575,7 +5575,7 @@
         <v>450</v>
       </c>
       <c r="B49">
-        <v>-0.032755883113207998</v>
+        <v>-0.033067019490004998</v>
       </c>
     </row>
     <row r="50">
@@ -5583,7 +5583,7 @@
         <v>451</v>
       </c>
       <c r="B50">
-        <v>-0.032752162234377297</v>
+        <v>-0.032830758836219699</v>
       </c>
     </row>
     <row r="51">
@@ -5591,7 +5591,7 @@
         <v>452</v>
       </c>
       <c r="B51">
-        <v>-0.032715272442734998</v>
+        <v>-0.032787001756501302</v>
       </c>
     </row>
     <row r="52">
@@ -5599,7 +5599,7 @@
         <v>453</v>
       </c>
       <c r="B52">
-        <v>-0.032481085201922298</v>
+        <v>-0.032738077661373897</v>
       </c>
     </row>
     <row r="53">
@@ -5607,7 +5607,7 @@
         <v>454</v>
       </c>
       <c r="B53">
-        <v>-0.032389723688560301</v>
+        <v>-0.032585682855690301</v>
       </c>
     </row>
     <row r="54">
@@ -5615,7 +5615,7 @@
         <v>455</v>
       </c>
       <c r="B54">
-        <v>-0.032378397121828703</v>
+        <v>-0.032430649662962101</v>
       </c>
     </row>
     <row r="55">
@@ -5623,7 +5623,7 @@
         <v>456</v>
       </c>
       <c r="B55">
-        <v>-0.031916762009230798</v>
+        <v>-0.032413730004934901</v>
       </c>
     </row>
     <row r="56">
@@ -5631,7 +5631,7 @@
         <v>457</v>
       </c>
       <c r="B56">
-        <v>-0.031873695591008701</v>
+        <v>-0.032249287273559503</v>
       </c>
     </row>
     <row r="57">
@@ -5639,7 +5639,7 @@
         <v>458</v>
       </c>
       <c r="B57">
-        <v>-0.031669004039671399</v>
+        <v>-0.031936956319936198</v>
       </c>
     </row>
     <row r="58">
@@ -5647,7 +5647,7 @@
         <v>459</v>
       </c>
       <c r="B58">
-        <v>-0.031516900204099398</v>
+        <v>-0.031916246260275803</v>
       </c>
     </row>
     <row r="59">
@@ -5655,7 +5655,7 @@
         <v>460</v>
       </c>
       <c r="B59">
-        <v>-0.0314849602881059</v>
+        <v>-0.031722734790421203</v>
       </c>
     </row>
     <row r="60">
@@ -5663,7 +5663,7 @@
         <v>461</v>
       </c>
       <c r="B60">
-        <v>-0.031426205355343399</v>
+        <v>-0.031532228951911802</v>
       </c>
     </row>
     <row r="61">
@@ -5671,7 +5671,7 @@
         <v>462</v>
       </c>
       <c r="B61">
-        <v>-0.031295277411037999</v>
+        <v>-0.031466529432322997</v>
       </c>
     </row>
     <row r="62">
@@ -5679,7 +5679,7 @@
         <v>463</v>
       </c>
       <c r="B62">
-        <v>-0.031286438518376203</v>
+        <v>-0.031335904633572602</v>
       </c>
     </row>
     <row r="63">
@@ -5687,7 +5687,7 @@
         <v>464</v>
       </c>
       <c r="B63">
-        <v>-0.0311869224017263</v>
+        <v>-0.0313119549583964</v>
       </c>
     </row>
     <row r="64">
@@ -5695,7 +5695,7 @@
         <v>465</v>
       </c>
       <c r="B64">
-        <v>-0.031064435087068</v>
+        <v>-0.031284389666269299</v>
       </c>
     </row>
     <row r="65">
@@ -5703,15 +5703,15 @@
         <v>466</v>
       </c>
       <c r="B65">
-        <v>-0.0303443330432757</v>
+        <v>-0.0310713438203165</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B66">
-        <v>-0.030337001137785001</v>
+        <v>-0.0304764522595872</v>
       </c>
     </row>
     <row r="67">
@@ -5719,7 +5719,7 @@
         <v>467</v>
       </c>
       <c r="B67">
-        <v>-0.0302884386893017</v>
+        <v>-0.030340182576756101</v>
       </c>
     </row>
     <row r="68">
@@ -5727,7 +5727,7 @@
         <v>468</v>
       </c>
       <c r="B68">
-        <v>-0.030268830966010601</v>
+        <v>-0.030334881931966901</v>
       </c>
     </row>
     <row r="69">
@@ -5735,7 +5735,7 @@
         <v>469</v>
       </c>
       <c r="B69">
-        <v>-0.0299879189348543</v>
+        <v>-0.030332399269362698</v>
       </c>
     </row>
     <row r="70">
@@ -5743,7 +5743,7 @@
         <v>470</v>
       </c>
       <c r="B70">
-        <v>-0.0296688876889145</v>
+        <v>-0.030061843861177402</v>
       </c>
     </row>
     <row r="71">
@@ -5751,7 +5751,7 @@
         <v>471</v>
       </c>
       <c r="B71">
-        <v>-0.0296593317304535</v>
+        <v>-0.029781648073180199</v>
       </c>
     </row>
     <row r="72">
@@ -5759,7 +5759,7 @@
         <v>472</v>
       </c>
       <c r="B72">
-        <v>-0.029482340725253901</v>
+        <v>-0.029779071691976199</v>
       </c>
     </row>
     <row r="73">
@@ -5767,7 +5767,7 @@
         <v>473</v>
       </c>
       <c r="B73">
-        <v>-0.029441855615262101</v>
+        <v>-0.029594831866855398</v>
       </c>
     </row>
     <row r="74">
@@ -5775,7 +5775,7 @@
         <v>474</v>
       </c>
       <c r="B74">
-        <v>-0.029213649078096701</v>
+        <v>-0.0294685833368174</v>
       </c>
     </row>
     <row r="75">
@@ -5783,7 +5783,7 @@
         <v>475</v>
       </c>
       <c r="B75">
-        <v>-0.029051164959356401</v>
+        <v>-0.029269460285247399</v>
       </c>
     </row>
     <row r="76">
@@ -5791,7 +5791,7 @@
         <v>476</v>
       </c>
       <c r="B76">
-        <v>-0.028969653160994101</v>
+        <v>-0.0291670504311612</v>
       </c>
     </row>
     <row r="77">
@@ -5799,7 +5799,7 @@
         <v>477</v>
       </c>
       <c r="B77">
-        <v>-0.028932287970349298</v>
+        <v>-0.028988536458259901</v>
       </c>
     </row>
     <row r="78">
@@ -5807,7 +5807,7 @@
         <v>478</v>
       </c>
       <c r="B78">
-        <v>-0.028853263579032399</v>
+        <v>-0.028968445698177601</v>
       </c>
     </row>
     <row r="79">
@@ -5815,7 +5815,7 @@
         <v>479</v>
       </c>
       <c r="B79">
-        <v>-0.028730427926552501</v>
+        <v>-0.028887983599180201</v>
       </c>
     </row>
     <row r="80">
@@ -5823,7 +5823,7 @@
         <v>480</v>
       </c>
       <c r="B80">
-        <v>-0.0284479959680531</v>
+        <v>-0.028793770785154001</v>
       </c>
     </row>
     <row r="81">
@@ -5831,7 +5831,7 @@
         <v>481</v>
       </c>
       <c r="B81">
-        <v>-0.028416371939298201</v>
+        <v>-0.0284876832331145</v>
       </c>
     </row>
     <row r="82">
@@ -5839,7 +5839,7 @@
         <v>482</v>
       </c>
       <c r="B82">
-        <v>-0.0283811814927456</v>
+        <v>-0.028396449412996801</v>
       </c>
     </row>
     <row r="83">
@@ -5847,7 +5847,7 @@
         <v>483</v>
       </c>
       <c r="B83">
-        <v>-0.027725839954624999</v>
+        <v>-0.028382562368009099</v>
       </c>
     </row>
     <row r="84">
@@ -5855,7 +5855,7 @@
         <v>484</v>
       </c>
       <c r="B84">
-        <v>-0.027460929259430399</v>
+        <v>-0.0277988118823497</v>
       </c>
     </row>
     <row r="85">
@@ -5863,7 +5863,7 @@
         <v>485</v>
       </c>
       <c r="B85">
-        <v>-0.027244185126478599</v>
+        <v>-0.027502316622528999</v>
       </c>
     </row>
     <row r="86">
@@ -5871,7 +5871,7 @@
         <v>486</v>
       </c>
       <c r="B86">
-        <v>-0.027185231307504901</v>
+        <v>-0.0272879027085829</v>
       </c>
     </row>
     <row r="87">
@@ -5879,7 +5879,7 @@
         <v>487</v>
       </c>
       <c r="B87">
-        <v>-0.0271736606647024</v>
+        <v>-0.027275894596849301</v>
       </c>
     </row>
     <row r="88">
@@ -5887,7 +5887,7 @@
         <v>488</v>
       </c>
       <c r="B88">
-        <v>-0.027104520550309801</v>
+        <v>-0.027248568837006201</v>
       </c>
     </row>
     <row r="89">
@@ -5895,7 +5895,7 @@
         <v>489</v>
       </c>
       <c r="B89">
-        <v>-0.026874459648495601</v>
+        <v>-0.027134877128124402</v>
       </c>
     </row>
     <row r="90">
@@ -5903,7 +5903,7 @@
         <v>490</v>
       </c>
       <c r="B90">
-        <v>-0.026693230362293201</v>
+        <v>-0.0270844045533877</v>
       </c>
     </row>
     <row r="91">
@@ -5911,7 +5911,7 @@
         <v>491</v>
       </c>
       <c r="B91">
-        <v>-0.026538653871238101</v>
+        <v>-0.026873226385463501</v>
       </c>
     </row>
     <row r="92">
@@ -5919,7 +5919,7 @@
         <v>492</v>
       </c>
       <c r="B92">
-        <v>-0.0262357172945012</v>
+        <v>-0.0267491090819491</v>
       </c>
     </row>
     <row r="93">
@@ -5927,7 +5927,7 @@
         <v>493</v>
       </c>
       <c r="B93">
-        <v>-0.026202267413220699</v>
+        <v>-0.0266637164023119</v>
       </c>
     </row>
     <row r="94">
@@ -5935,7 +5935,7 @@
         <v>494</v>
       </c>
       <c r="B94">
-        <v>-0.025865209308148701</v>
+        <v>-0.026409279534668199</v>
       </c>
     </row>
     <row r="95">
@@ -5943,7 +5943,7 @@
         <v>495</v>
       </c>
       <c r="B95">
-        <v>-0.0257168556500065</v>
+        <v>-0.026286719335926901</v>
       </c>
     </row>
     <row r="96">
@@ -5951,7 +5951,7 @@
         <v>496</v>
       </c>
       <c r="B96">
-        <v>-0.025653950552362598</v>
+        <v>-0.026062327710226599</v>
       </c>
     </row>
     <row r="97">
@@ -5959,7 +5959,7 @@
         <v>497</v>
       </c>
       <c r="B97">
-        <v>-0.0254239484140911</v>
+        <v>-0.025971319299670202</v>
       </c>
     </row>
     <row r="98">
@@ -5967,7 +5967,7 @@
         <v>498</v>
       </c>
       <c r="B98">
-        <v>-0.025378724312958598</v>
+        <v>-0.0257833497077899</v>
       </c>
     </row>
     <row r="99">
@@ -5975,7 +5975,7 @@
         <v>499</v>
       </c>
       <c r="B99">
-        <v>-0.025190097473800001</v>
+        <v>-0.025726305721912899</v>
       </c>
     </row>
     <row r="100">
@@ -5983,7 +5983,7 @@
         <v>500</v>
       </c>
       <c r="B100">
-        <v>-0.025126719522587399</v>
+        <v>-0.025458177712712901</v>
       </c>
     </row>
     <row r="101">
@@ -5991,7 +5991,7 @@
         <v>501</v>
       </c>
       <c r="B101">
-        <v>-0.025114371082196801</v>
+        <v>-0.025421157672728099</v>
       </c>
     </row>
   </sheetData>
@@ -6020,7 +6020,7 @@
         <v>503</v>
       </c>
       <c r="B2">
-        <v>0.049501276930017199</v>
+        <v>0.0495531996877304</v>
       </c>
     </row>
     <row r="3">
@@ -6028,7 +6028,7 @@
         <v>504</v>
       </c>
       <c r="B3">
-        <v>0.048770051735571703</v>
+        <v>0.0488643474361233</v>
       </c>
     </row>
     <row r="4">
@@ -6036,7 +6036,7 @@
         <v>505</v>
       </c>
       <c r="B4">
-        <v>0.045717544715408599</v>
+        <v>0.0468608480200043</v>
       </c>
     </row>
     <row r="5">
@@ -6044,7 +6044,7 @@
         <v>506</v>
       </c>
       <c r="B5">
-        <v>0.043206321978982103</v>
+        <v>0.0457372796766361</v>
       </c>
     </row>
     <row r="6">
@@ -6052,7 +6052,7 @@
         <v>507</v>
       </c>
       <c r="B6">
-        <v>0.042757190759391397</v>
+        <v>0.043278130333051897</v>
       </c>
     </row>
     <row r="7">
@@ -6060,7 +6060,7 @@
         <v>508</v>
       </c>
       <c r="B7">
-        <v>0.041084899821162001</v>
+        <v>0.042820950456170702</v>
       </c>
     </row>
     <row r="8">
@@ -6068,7 +6068,7 @@
         <v>509</v>
       </c>
       <c r="B8">
-        <v>0.040878158801078798</v>
+        <v>0.041144356232244501</v>
       </c>
     </row>
     <row r="9">
@@ -6076,7 +6076,7 @@
         <v>510</v>
       </c>
       <c r="B9">
-        <v>0.040580000740805498</v>
+        <v>0.040949564356045402</v>
       </c>
     </row>
     <row r="10">
@@ -6084,7 +6084,7 @@
         <v>511</v>
       </c>
       <c r="B10">
-        <v>0.040421190134404102</v>
+        <v>0.040637398496857401</v>
       </c>
     </row>
     <row r="11">
@@ -6092,7 +6092,7 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>0.039333459013394197</v>
+        <v>0.040428343560372303</v>
       </c>
     </row>
     <row r="12">
@@ -6100,7 +6100,7 @@
         <v>513</v>
       </c>
       <c r="B12">
-        <v>0.038975067150342699</v>
+        <v>0.039388231399542603</v>
       </c>
     </row>
     <row r="13">
@@ -6108,7 +6108,7 @@
         <v>514</v>
       </c>
       <c r="B13">
-        <v>0.038941334219443798</v>
+        <v>0.039027783780427601</v>
       </c>
     </row>
     <row r="14">
@@ -6116,7 +6116,7 @@
         <v>515</v>
       </c>
       <c r="B14">
-        <v>0.038940593851484302</v>
+        <v>0.0390197673762641</v>
       </c>
     </row>
     <row r="15">
@@ -6124,7 +6124,7 @@
         <v>516</v>
       </c>
       <c r="B15">
-        <v>0.038835847806670903</v>
+        <v>0.038915695978181598</v>
       </c>
     </row>
     <row r="16">
@@ -6132,7 +6132,7 @@
         <v>517</v>
       </c>
       <c r="B16">
-        <v>0.0388182991977623</v>
+        <v>0.038908923695168102</v>
       </c>
     </row>
     <row r="17">
@@ -6140,7 +6140,7 @@
         <v>518</v>
       </c>
       <c r="B17">
-        <v>0.037760434467699597</v>
+        <v>0.038907771092951099</v>
       </c>
     </row>
     <row r="18">
@@ -6148,7 +6148,7 @@
         <v>519</v>
       </c>
       <c r="B18">
-        <v>0.037664154500240798</v>
+        <v>0.038510578350841401</v>
       </c>
     </row>
     <row r="19">
@@ -6156,7 +6156,7 @@
         <v>520</v>
       </c>
       <c r="B19">
-        <v>0.037432540284415103</v>
+        <v>0.037825184151708997</v>
       </c>
     </row>
     <row r="20">
@@ -6164,7 +6164,7 @@
         <v>521</v>
       </c>
       <c r="B20">
-        <v>0.037371796489525697</v>
+        <v>0.037728706998802597</v>
       </c>
     </row>
     <row r="21">
@@ -6172,7 +6172,7 @@
         <v>522</v>
       </c>
       <c r="B21">
-        <v>0.037286637582007003</v>
+        <v>0.037478461571774299</v>
       </c>
     </row>
     <row r="22">
@@ -6180,7 +6180,7 @@
         <v>523</v>
       </c>
       <c r="B22">
-        <v>0.037161859554559903</v>
+        <v>0.037465401254294803</v>
       </c>
     </row>
     <row r="23">
@@ -6188,7 +6188,7 @@
         <v>524</v>
       </c>
       <c r="B23">
-        <v>0.037038487015330697</v>
+        <v>0.037380726241081602</v>
       </c>
     </row>
     <row r="24">
@@ -6196,7 +6196,7 @@
         <v>525</v>
       </c>
       <c r="B24">
-        <v>0.036852948626003898</v>
+        <v>0.0371882266861598</v>
       </c>
     </row>
     <row r="25">
@@ -6204,7 +6204,7 @@
         <v>526</v>
       </c>
       <c r="B25">
-        <v>0.036592761175569102</v>
+        <v>0.037076363347389098</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>527</v>
       </c>
       <c r="B26">
-        <v>0.035507998335288601</v>
+        <v>0.0368880382091996</v>
       </c>
     </row>
     <row r="27">
@@ -6220,7 +6220,7 @@
         <v>528</v>
       </c>
       <c r="B27">
-        <v>0.035356872306633799</v>
+        <v>0.036603223690389999</v>
       </c>
     </row>
     <row r="28">
@@ -6228,7 +6228,7 @@
         <v>529</v>
       </c>
       <c r="B28">
-        <v>0.035355354036900599</v>
+        <v>0.035550811953496998</v>
       </c>
     </row>
     <row r="29">
@@ -6236,7 +6236,7 @@
         <v>530</v>
       </c>
       <c r="B29">
-        <v>0.035065221727506403</v>
+        <v>0.035499627215985</v>
       </c>
     </row>
     <row r="30">
@@ -6244,7 +6244,7 @@
         <v>531</v>
       </c>
       <c r="B30">
-        <v>0.0350558189096127</v>
+        <v>0.035458650002754402</v>
       </c>
     </row>
     <row r="31">
@@ -6252,7 +6252,7 @@
         <v>532</v>
       </c>
       <c r="B31">
-        <v>0.034037946874135798</v>
+        <v>0.0353869899292013</v>
       </c>
     </row>
     <row r="32">
@@ -6260,7 +6260,7 @@
         <v>533</v>
       </c>
       <c r="B32">
-        <v>0.033893286131826197</v>
+        <v>0.035172171602148798</v>
       </c>
     </row>
     <row r="33">
@@ -6268,7 +6268,7 @@
         <v>534</v>
       </c>
       <c r="B33">
-        <v>0.033315156755030897</v>
+        <v>0.035168025272977597</v>
       </c>
     </row>
     <row r="34">
@@ -6276,7 +6276,7 @@
         <v>535</v>
       </c>
       <c r="B34">
-        <v>0.033276949310276797</v>
+        <v>0.034088772881592899</v>
       </c>
     </row>
     <row r="35">
@@ -6284,7 +6284,7 @@
         <v>536</v>
       </c>
       <c r="B35">
-        <v>0.033174389603732903</v>
+        <v>0.033949265331760001</v>
       </c>
     </row>
     <row r="36">
@@ -6292,7 +6292,7 @@
         <v>537</v>
       </c>
       <c r="B36">
-        <v>0.033115616946398599</v>
+        <v>0.033350992927358998</v>
       </c>
     </row>
     <row r="37">
@@ -6300,7 +6300,7 @@
         <v>538</v>
       </c>
       <c r="B37">
-        <v>0.032631572986073901</v>
+        <v>0.0333425989643285</v>
       </c>
     </row>
     <row r="38">
@@ -6308,7 +6308,7 @@
         <v>539</v>
       </c>
       <c r="B38">
-        <v>0.032627396579547101</v>
+        <v>0.033209582698578398</v>
       </c>
     </row>
     <row r="39">
@@ -6316,7 +6316,7 @@
         <v>540</v>
       </c>
       <c r="B39">
-        <v>0.032334325985331203</v>
+        <v>0.033123314053219298</v>
       </c>
     </row>
     <row r="40">
@@ -6324,7 +6324,7 @@
         <v>541</v>
       </c>
       <c r="B40">
-        <v>0.032041047195096803</v>
+        <v>0.032833834586304199</v>
       </c>
     </row>
     <row r="41">
@@ -6332,7 +6332,7 @@
         <v>542</v>
       </c>
       <c r="B41">
-        <v>0.031928515878494698</v>
+        <v>0.0327177320047927</v>
       </c>
     </row>
     <row r="42">
@@ -6340,7 +6340,7 @@
         <v>543</v>
       </c>
       <c r="B42">
-        <v>0.031866089040087399</v>
+        <v>0.0327001296941292</v>
       </c>
     </row>
     <row r="43">
@@ -6348,7 +6348,7 @@
         <v>544</v>
       </c>
       <c r="B43">
-        <v>0.031444456913275597</v>
+        <v>0.032339660311709102</v>
       </c>
     </row>
     <row r="44">
@@ -6356,7 +6356,7 @@
         <v>545</v>
       </c>
       <c r="B44">
-        <v>0.031288905700692503</v>
+        <v>0.032085884208833501</v>
       </c>
     </row>
     <row r="45">
@@ -6364,7 +6364,7 @@
         <v>546</v>
       </c>
       <c r="B45">
-        <v>0.0312375720486587</v>
+        <v>0.032012549779833199</v>
       </c>
     </row>
     <row r="46">
@@ -6372,7 +6372,7 @@
         <v>547</v>
       </c>
       <c r="B46">
-        <v>0.031157437352693499</v>
+        <v>0.031878407130919099</v>
       </c>
     </row>
     <row r="47">
@@ -6380,7 +6380,7 @@
         <v>548</v>
       </c>
       <c r="B47">
-        <v>0.031138813639948901</v>
+        <v>0.031429889537949701</v>
       </c>
     </row>
     <row r="48">
@@ -6388,7 +6388,7 @@
         <v>549</v>
       </c>
       <c r="B48">
-        <v>0.0303914078161025</v>
+        <v>0.031383878422326601</v>
       </c>
     </row>
     <row r="49">
@@ -6396,7 +6396,7 @@
         <v>550</v>
       </c>
       <c r="B49">
-        <v>0.030353393396587401</v>
+        <v>0.031237933079300201</v>
       </c>
     </row>
     <row r="50">
@@ -6404,7 +6404,7 @@
         <v>551</v>
       </c>
       <c r="B50">
-        <v>0.030262894837140099</v>
+        <v>0.0312069100653415</v>
       </c>
     </row>
     <row r="51">
@@ -6412,7 +6412,7 @@
         <v>552</v>
       </c>
       <c r="B51">
-        <v>0.030217674714991399</v>
+        <v>0.031178529142343502</v>
       </c>
     </row>
     <row r="52">
@@ -6420,7 +6420,7 @@
         <v>553</v>
       </c>
       <c r="B52">
-        <v>0.0301783787836555</v>
+        <v>0.030448149239871301</v>
       </c>
     </row>
     <row r="53">
@@ -6428,7 +6428,7 @@
         <v>554</v>
       </c>
       <c r="B53">
-        <v>0.030055182232511801</v>
+        <v>0.030337625156166999</v>
       </c>
     </row>
     <row r="54">
@@ -6436,7 +6436,7 @@
         <v>555</v>
       </c>
       <c r="B54">
-        <v>0.029824819412180601</v>
+        <v>0.030313058229405401</v>
       </c>
     </row>
     <row r="55">
@@ -6444,7 +6444,7 @@
         <v>556</v>
       </c>
       <c r="B55">
-        <v>0.029636204447029</v>
+        <v>0.030215042745734801</v>
       </c>
     </row>
     <row r="56">
@@ -6452,7 +6452,7 @@
         <v>557</v>
       </c>
       <c r="B56">
-        <v>0.029093835389468099</v>
+        <v>0.030176063413178002</v>
       </c>
     </row>
     <row r="57">
@@ -6460,7 +6460,7 @@
         <v>558</v>
       </c>
       <c r="B57">
-        <v>0.028701477442929502</v>
+        <v>0.030160445359014399</v>
       </c>
     </row>
     <row r="58">
@@ -6468,7 +6468,7 @@
         <v>559</v>
       </c>
       <c r="B58">
-        <v>0.028534284117682999</v>
+        <v>0.029881331741782001</v>
       </c>
     </row>
     <row r="59">
@@ -6476,7 +6476,7 @@
         <v>560</v>
       </c>
       <c r="B59">
-        <v>0.0279900844800876</v>
+        <v>0.0297041799753427</v>
       </c>
     </row>
     <row r="60">
@@ -6484,7 +6484,7 @@
         <v>561</v>
       </c>
       <c r="B60">
-        <v>0.027522792114653201</v>
+        <v>0.029627278918789499</v>
       </c>
     </row>
     <row r="61">
@@ -6492,7 +6492,7 @@
         <v>562</v>
       </c>
       <c r="B61">
-        <v>0.027397053964923</v>
+        <v>0.0291052209883008</v>
       </c>
     </row>
     <row r="62">
@@ -6500,7 +6500,7 @@
         <v>563</v>
       </c>
       <c r="B62">
-        <v>0.027020220363882099</v>
+        <v>0.028703032852509799</v>
       </c>
     </row>
     <row r="63">
@@ -6508,7 +6508,7 @@
         <v>564</v>
       </c>
       <c r="B63">
-        <v>0.026376587278884901</v>
+        <v>0.028606208082684499</v>
       </c>
     </row>
     <row r="64">
@@ -6516,7 +6516,7 @@
         <v>565</v>
       </c>
       <c r="B64">
-        <v>0.026320574151871501</v>
+        <v>0.028048136953914501</v>
       </c>
     </row>
     <row r="65">
@@ -6524,7 +6524,7 @@
         <v>566</v>
       </c>
       <c r="B65">
-        <v>0.025844784571321</v>
+        <v>0.027537407984932</v>
       </c>
     </row>
     <row r="66">
@@ -6532,7 +6532,7 @@
         <v>567</v>
       </c>
       <c r="B66">
-        <v>0.025489960408379302</v>
+        <v>0.027432559520116501</v>
       </c>
     </row>
     <row r="67">
@@ -6540,7 +6540,7 @@
         <v>568</v>
       </c>
       <c r="B67">
-        <v>0.025319944657836199</v>
+        <v>0.027095725587934001</v>
       </c>
     </row>
     <row r="68">
@@ -6548,7 +6548,7 @@
         <v>569</v>
       </c>
       <c r="B68">
-        <v>0.0251177648527484</v>
+        <v>0.026488037021437</v>
       </c>
     </row>
     <row r="69">
@@ -6556,7 +6556,7 @@
         <v>570</v>
       </c>
       <c r="B69">
-        <v>0.024859928839205001</v>
+        <v>0.026394248892834</v>
       </c>
     </row>
     <row r="70">
@@ -6564,7 +6564,7 @@
         <v>571</v>
       </c>
       <c r="B70">
-        <v>0.024678364194851799</v>
+        <v>0.025960292089570298</v>
       </c>
     </row>
     <row r="71">
@@ -6572,7 +6572,7 @@
         <v>572</v>
       </c>
       <c r="B71">
-        <v>0.024382144503040999</v>
+        <v>0.025533227342200399</v>
       </c>
     </row>
     <row r="72">
@@ -6580,7 +6580,7 @@
         <v>573</v>
       </c>
       <c r="B72">
-        <v>0.023376313756209102</v>
+        <v>0.025322990647640198</v>
       </c>
     </row>
     <row r="73">
@@ -6588,7 +6588,7 @@
         <v>574</v>
       </c>
       <c r="B73">
-        <v>0.023354844286061799</v>
+        <v>0.025225199044561601</v>
       </c>
     </row>
     <row r="74">
@@ -6596,7 +6596,7 @@
         <v>575</v>
       </c>
       <c r="B74">
-        <v>0.0233271650165244</v>
+        <v>0.024921127537538602</v>
       </c>
     </row>
     <row r="75">
@@ -6604,7 +6604,7 @@
         <v>576</v>
       </c>
       <c r="B75">
-        <v>0.0229237433809844</v>
+        <v>0.024758671652587601</v>
       </c>
     </row>
     <row r="76">
@@ -6612,7 +6612,7 @@
         <v>577</v>
       </c>
       <c r="B76">
-        <v>0.022366613158339699</v>
+        <v>0.024477609949483701</v>
       </c>
     </row>
     <row r="77">
@@ -6620,7 +6620,7 @@
         <v>578</v>
       </c>
       <c r="B77">
-        <v>0.0220970380617279</v>
+        <v>0.0234824112750497</v>
       </c>
     </row>
     <row r="78">
@@ -6628,7 +6628,7 @@
         <v>579</v>
       </c>
       <c r="B78">
-        <v>0.021981556083444501</v>
+        <v>0.023480883385647501</v>
       </c>
     </row>
     <row r="79">
@@ -6636,7 +6636,7 @@
         <v>580</v>
       </c>
       <c r="B79">
-        <v>0.021876405442125098</v>
+        <v>0.0233572221219738</v>
       </c>
     </row>
     <row r="80">
@@ -6644,7 +6644,7 @@
         <v>581</v>
       </c>
       <c r="B80">
-        <v>0.020518680949840901</v>
+        <v>0.023261664236427601</v>
       </c>
     </row>
     <row r="81">
@@ -6652,7 +6652,7 @@
         <v>582</v>
       </c>
       <c r="B81">
-        <v>0.020460962152264499</v>
+        <v>0.023004904371766301</v>
       </c>
     </row>
     <row r="82">
@@ -6660,7 +6660,7 @@
         <v>583</v>
       </c>
       <c r="B82">
-        <v>0.019888722749410899</v>
+        <v>0.022456604581285899</v>
       </c>
     </row>
     <row r="83">
@@ -6668,7 +6668,7 @@
         <v>584</v>
       </c>
       <c r="B83">
-        <v>0.019240691807058698</v>
+        <v>0.0221928066870495</v>
       </c>
     </row>
     <row r="84">
@@ -6676,7 +6676,7 @@
         <v>585</v>
       </c>
       <c r="B84">
-        <v>0.016665274406139501</v>
+        <v>0.0221038770561151</v>
       </c>
     </row>
     <row r="85">
@@ -6684,7 +6684,7 @@
         <v>586</v>
       </c>
       <c r="B85">
-        <v>0.016294809741648101</v>
+        <v>0.0206565864435184</v>
       </c>
     </row>
     <row r="86">
@@ -6692,7 +6692,7 @@
         <v>587</v>
       </c>
       <c r="B86">
-        <v>0.01561720547684</v>
+        <v>0.0205166461428236</v>
       </c>
     </row>
     <row r="87">
@@ -6700,7 +6700,7 @@
         <v>588</v>
       </c>
       <c r="B87">
-        <v>0.0154712195257623</v>
+        <v>0.019929188208133199</v>
       </c>
     </row>
     <row r="88">
@@ -6708,7 +6708,7 @@
         <v>589</v>
       </c>
       <c r="B88">
-        <v>0.015048695295072601</v>
+        <v>0.019306400622920699</v>
       </c>
     </row>
     <row r="89">
@@ -6716,7 +6716,7 @@
         <v>590</v>
       </c>
       <c r="B89">
-        <v>0.014655399813130099</v>
+        <v>0.0176863509583313</v>
       </c>
     </row>
     <row r="90">
@@ -6724,7 +6724,7 @@
         <v>591</v>
       </c>
       <c r="B90">
-        <v>0.0145820323105245</v>
+        <v>0.016792822900191198</v>
       </c>
     </row>
     <row r="91">
@@ -6732,7 +6732,7 @@
         <v>592</v>
       </c>
       <c r="B91">
-        <v>0.013407362601388801</v>
+        <v>0.016310799500675599</v>
       </c>
     </row>
     <row r="92">
@@ -6740,7 +6740,7 @@
         <v>593</v>
       </c>
       <c r="B92">
-        <v>0.0113816626534529</v>
+        <v>0.015718445209789302</v>
       </c>
     </row>
     <row r="93">
@@ -6748,7 +6748,7 @@
         <v>594</v>
       </c>
       <c r="B93">
-        <v>-0.0117589391677858</v>
+        <v>0.015484300835352301</v>
       </c>
     </row>
     <row r="94">
@@ -6756,7 +6756,7 @@
         <v>595</v>
       </c>
       <c r="B94">
-        <v>-0.0127939374662412</v>
+        <v>0.015074514931757399</v>
       </c>
     </row>
     <row r="95">
@@ -6764,7 +6764,7 @@
         <v>596</v>
       </c>
       <c r="B95">
-        <v>-0.0139028101719242</v>
+        <v>0.015066953249846299</v>
       </c>
     </row>
     <row r="96">
@@ -6772,7 +6772,7 @@
         <v>597</v>
       </c>
       <c r="B96">
-        <v>-0.014012608231892499</v>
+        <v>0.0146511061395165</v>
       </c>
     </row>
     <row r="97">
@@ -6780,7 +6780,7 @@
         <v>598</v>
       </c>
       <c r="B97">
-        <v>-0.0140874844347552</v>
+        <v>0.014648640393492099</v>
       </c>
     </row>
     <row r="98">
@@ -6788,7 +6788,7 @@
         <v>599</v>
       </c>
       <c r="B98">
-        <v>-0.014425883968108601</v>
+        <v>0.0134674963500084</v>
       </c>
     </row>
     <row r="99">
@@ -6796,7 +6796,7 @@
         <v>600</v>
       </c>
       <c r="B99">
-        <v>-0.0146182959570562</v>
+        <v>0.0114338429390132</v>
       </c>
     </row>
     <row r="100">
@@ -6804,7 +6804,7 @@
         <v>601</v>
       </c>
       <c r="B100">
-        <v>-0.01466049677118</v>
+        <v>-0.011809036650834701</v>
       </c>
     </row>
     <row r="101">
@@ -6812,7 +6812,7 @@
         <v>602</v>
       </c>
       <c r="B101">
-        <v>-0.0154099552162567</v>
+        <v>-0.0127786358989897</v>
       </c>
     </row>
   </sheetData>
